--- a/forecast_results.xlsx
+++ b/forecast_results.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ7"/>
+  <dimension ref="A1:CY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,325 +459,495 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>GRDP theo giá so sánh (tỷ dồng) - 8% Growth</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GRDP theo giá so sánh (tỷ dồng) - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>GRDP theo giá so sánh (tỷ dồng) - ARIMA</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I - Linear Regression</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I - Prophet</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I - 10% Growth</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực I - 8% Growth</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực I - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I - ARIMA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II - Linear Regression</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II - Prophet</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II - 10% Growth</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực II - 8% Growth</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực II - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II - ARIMA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp - Linear Regression</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp - Prophet</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp - 10% Growth</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Trong đó: Công nghiệp - 8% Growth</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Trong đó: Công nghiệp - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp - ARIMA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III - Linear Regression</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III - Prophet</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III - 10% Growth</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực III - 8% Growth</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực III - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III - ARIMA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm - Linear Regression</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm - Prophet</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm - 10% Growth</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Thuế sản phẩm trừ trợ cấp sản phẩm - 8% Growth</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Thuế sản phẩm trừ trợ cấp sản phẩm - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm - ARIMA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>GRDP theo giá hiện hành - Linear Regression</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>GRDP theo giá hiện hành - Prophet</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>GRDP theo giá hiện hành - 10% Growth</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>GRDP theo giá hiện hành - 8% Growth</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>GRDP theo giá hiện hành - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>GRDP theo giá hiện hành - ARIMA</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I.1 - Prophet</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực I.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực I.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II.1 - Prophet</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực II.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực II.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp.1 - Prophet</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Trong đó: Công nghiệp.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Trong đó: Công nghiệp.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III.1 - Prophet</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực III.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực III.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - Prophet</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Dân số - Linear Regression</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Dân số - Prophet</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Dân số - 10% Growth</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Dân số - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Dân số - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Dân số - ARIMA</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Dân số - Prophet</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>Thu ngân sách - Linear Regression</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Thu ngân sách - Prophet</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>Thu ngân sách - 10% Growth</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>Thu ngân sách - 8% Growth</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>Thu ngân sách - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Thu ngân sách - ARIMA</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>Tổng đầu tư toàn xã hội - Linear Regression</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>Tổng đầu tư toàn xã hội - Prophet</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>Tổng đầu tư toàn xã hội - 10% Growth</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Tổng đầu tư toàn xã hội - 8% Growth</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Tổng đầu tư toàn xã hội - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>Tổng đầu tư toàn xã hội - ARIMA</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>Lao động có việc làm hàng năm - Linear Regression</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>Lao động có việc làm hàng năm - Prophet</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>Lao động có việc làm hàng năm - 10% Growth</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Lao động có việc làm hàng năm - 8% Growth</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>Lao động có việc làm hàng năm - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>Lao động có việc làm hàng năm - ARIMA</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ hộ nghèo của tỉnh - Linear Regression</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ hộ nghèo của tỉnh - Prophet</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ hộ nghèo của tỉnh - 10% Growth</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Tỷ lệ hộ nghèo của tỉnh - 8% Growth</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Tỷ lệ hộ nghèo của tỉnh - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ hộ nghèo của tỉnh - ARIMA</t>
         </is>
@@ -796,137 +966,215 @@
       <c r="D2" t="n">
         <v>47234.8932</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>46376.07696</v>
+      </c>
       <c r="F2" t="n">
+        <v>46376.07696</v>
+      </c>
+      <c r="G2" t="n">
+        <v>43744.81057834809</v>
+      </c>
+      <c r="H2" t="n">
         <v>16425.73647222226</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>16428.03140694773</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>16781.03310491688</v>
+      </c>
+      <c r="N2" t="n">
         <v>8091.993888888974</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>8090.255181585988</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>6001.345250000129</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5994.392983361394</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="n">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>7708.466174360723</v>
+      </c>
+      <c r="T2" t="n">
+        <v>6001.345250000129</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5994.392983361394</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>5415.732365808352</v>
+      </c>
+      <c r="Z2" t="n">
         <v>17532.03708333336</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AA2" t="n">
         <v>17532.93091907804</v>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="n">
+        <v>18293.84994757932</v>
+      </c>
+      <c r="AF2" t="n">
         <v>2350.527944444446</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AG2" t="n">
         <v>2350.644787108261</v>
       </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="n">
+        <v>2245.778549109828</v>
+      </c>
+      <c r="AL2" t="n">
         <v>85305.35572222248</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AM2" t="n">
         <v>85318.60454344952</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AN2" t="n">
         <v>92046.67560000002</v>
       </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
+      <c r="AO2" t="n">
+        <v>90373.09968000001</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>90373.09968000001</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>81458.18200097478</v>
+      </c>
+      <c r="AR2" t="n">
         <v>33333.78297222219</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AS2" t="n">
         <v>33332.84854122452</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="n">
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="n">
+        <v>35320.40101445517</v>
+      </c>
+      <c r="AX2" t="n">
         <v>14259.46244444465</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AY2" t="n">
         <v>14259.51098949555</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="n">
-        <v>10628.92333333334</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>10629.00521004508</v>
-      </c>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>33307.76041666651</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>33308.16213782063</v>
-      </c>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="n">
-        <v>4404.349888888886</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>4403.537165649636</v>
-      </c>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="n">
-        <v>1031734.916666667</v>
-      </c>
-      <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="n">
-        <v>6825.26300021389</v>
-      </c>
+      <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="n">
-        <v>6841.785640797207</v>
+        <v>13857.57459800088</v>
       </c>
       <c r="BD2" t="n">
-        <v>6837.6</v>
-      </c>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="n">
-        <v>19211.44963888894</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>19213.65776899327</v>
-      </c>
+        <v>10628.92333333334</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>10629.00521004508</v>
+      </c>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
+      <c r="BI2" t="n">
+        <v>9548.980964742501</v>
+      </c>
       <c r="BJ2" t="n">
-        <v>741958.0555555597</v>
+        <v>33307.76041666651</v>
       </c>
       <c r="BK2" t="n">
-        <v>763419.2974780854</v>
+        <v>33308.16213782063</v>
       </c>
       <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="n">
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="n">
+        <v>36213.78302786897</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>4404.349888888886</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>4403.537165649636</v>
+      </c>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="n">
+        <v>4447.784675165743</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1031734.916666667</v>
+      </c>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="n">
+        <v>6825.26300021389</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>6841.785640797207</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>6837.6</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>6713.280000000001</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>6713.280000000001</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>5941.039313463596</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>19211.44963888894</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>19213.65776899327</v>
+      </c>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="n">
+        <v>19146.04319860862</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>741958.0555555597</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>763419.2974780854</v>
+      </c>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="n">
+        <v>761962.9599047498</v>
+      </c>
+      <c r="CT2" t="n">
         <v>2.410833333333358</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="CU2" t="n">
         <v>2.416383994904141</v>
       </c>
-      <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="n">
+        <v>1.20384976133019</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -941,137 +1189,215 @@
       <c r="D3" t="n">
         <v>51958.38252000001</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>50086.1631168</v>
+      </c>
       <c r="F3" t="n">
+        <v>50086.1631168</v>
+      </c>
+      <c r="G3" t="n">
+        <v>44355.15403118244</v>
+      </c>
+      <c r="H3" t="n">
         <v>17229.68472222215</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>17232.09095961114</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>17564.05544443198</v>
+      </c>
+      <c r="N3" t="n">
         <v>8426.771488889004</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>8424.396173630766</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>6282.04123333341</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6274.034949262623</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="n">
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>8161.730555426107</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6282.04123333341</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6274.034949262623</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>5826.048081047688</v>
+      </c>
+      <c r="Z3" t="n">
         <v>18200.32230000012</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AA3" t="n">
         <v>18201.37625521757</v>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>19379.42637015865</v>
+      </c>
+      <c r="AF3" t="n">
         <v>2422.911044444452</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AG3" t="n">
         <v>2422.98147509834</v>
       </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="n">
+        <v>2280.947498294383</v>
+      </c>
+      <c r="AL3" t="n">
         <v>90408.41915555671</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AM3" t="n">
         <v>90423.21535355602</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AN3" t="n">
         <v>101251.34316</v>
       </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
+      <c r="AO3" t="n">
+        <v>97602.94765440001</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>97602.94765440001</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>80564.79702456734</v>
+      </c>
+      <c r="AR3" t="n">
         <v>35599.93018888868</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AS3" t="n">
         <v>35597.21251463451</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="n">
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="n">
+        <v>38207.72660960533</v>
+      </c>
+      <c r="AX3" t="n">
         <v>15061.82337777806</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AY3" t="n">
         <v>15061.29701123498</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="n">
-        <v>11254.00373333343</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>11253.65003421013</v>
-      </c>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="n">
-        <v>35128.15350000001</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>35128.46212335254</v>
-      </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="n">
-        <v>4618.512088888907</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>4617.329743077414</v>
-      </c>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="n">
-        <v>1032926.166666667</v>
-      </c>
-      <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="n">
-        <v>6777.45602695756</v>
-      </c>
+      <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="n">
-        <v>6795.075802229349</v>
+        <v>14873.82015013804</v>
       </c>
       <c r="BD3" t="n">
-        <v>7521.360000000001</v>
-      </c>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="n">
-        <v>20168.03818888892</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>20169.99025325793</v>
-      </c>
+        <v>11254.00373333343</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>11253.65003421013</v>
+      </c>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
+      <c r="BI3" t="n">
+        <v>10362.09116032849</v>
+      </c>
       <c r="BJ3" t="n">
-        <v>760716.8888888881</v>
+        <v>35128.15350000001</v>
       </c>
       <c r="BK3" t="n">
-        <v>788907.9868254281</v>
+        <v>35128.46212335254</v>
       </c>
       <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="n">
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="n">
+        <v>39342.2598077792</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>4618.512088888907</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>4617.329743077414</v>
+      </c>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="n">
+        <v>4679.413468395264</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>1032926.166666667</v>
+      </c>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="n">
+        <v>6777.45602695756</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>6795.075802229349</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>7521.360000000001</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>7250.3424</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>7250.3424</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>5670.310206930073</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>20168.03818888892</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>20169.99025325793</v>
+      </c>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="n">
+        <v>19868.27987952912</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>760716.8888888881</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>788907.9868254281</v>
+      </c>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="n">
+        <v>786587.8074067426</v>
+      </c>
+      <c r="CT3" t="n">
         <v>2.220333333333315</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="CU3" t="n">
         <v>2.227193289992099</v>
       </c>
-      <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="n">
+        <v>0.8076624287091402</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1086,137 +1412,215 @@
       <c r="D4" t="n">
         <v>57154.22077200002</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>54093.05616614401</v>
+      </c>
       <c r="F4" t="n">
+        <v>55094.77942848</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44818.48710222238</v>
+      </c>
+      <c r="H4" t="n">
         <v>18033.63297222229</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>18036.15051227454</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>18545.88537898874</v>
+      </c>
+      <c r="N4" t="n">
         <v>8761.549088888918</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>8758.537165675543</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>6562.73721666669</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6553.676915163852</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>8263.415644917886</v>
+      </c>
+      <c r="T4" t="n">
+        <v>6562.73721666669</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6553.676915163852</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>5483.655732197851</v>
+      </c>
+      <c r="Z4" t="n">
         <v>18868.60751666664</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AA4" t="n">
         <v>18869.82159135709</v>
       </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="n">
+        <v>20360.64320770603</v>
+      </c>
+      <c r="AF4" t="n">
         <v>2495.294144444459</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AG4" t="n">
         <v>2495.31816308842</v>
       </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="n">
+        <v>2319.742154439618</v>
+      </c>
+      <c r="AL4" t="n">
         <v>95511.48258888908</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AM4" t="n">
         <v>95527.8261636625</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AN4" t="n">
         <v>111376.477476</v>
       </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
+      <c r="AO4" t="n">
+        <v>105411.183466752</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>107363.24241984</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>80205.3753887401</v>
+      </c>
+      <c r="AR4" t="n">
         <v>37866.07740555517</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AS4" t="n">
         <v>37861.57648804449</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="n">
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="n">
+        <v>40941.05869128667</v>
+      </c>
+      <c r="AX4" t="n">
         <v>15864.18431111122</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AY4" t="n">
         <v>15863.08303297441</v>
       </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="n">
-        <v>11879.08413333329</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>11878.29485837517</v>
-      </c>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="n">
-        <v>36948.54658333352</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>36948.76210888445</v>
-      </c>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="n">
-        <v>4832.674288888869</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>4831.122320505192</v>
-      </c>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="n">
-        <v>1034117.416666667</v>
-      </c>
-      <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="n">
-        <v>6729.649053701229</v>
-      </c>
+      <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="n">
-        <v>6748.365963661494</v>
+        <v>15412.17969140389</v>
       </c>
       <c r="BD4" t="n">
-        <v>8273.496000000003</v>
-      </c>
-      <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="n">
-        <v>21124.62673888891</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>21126.32273752258</v>
-      </c>
+        <v>11879.08413333329</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>11878.29485837517</v>
+      </c>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="inlineStr"/>
-      <c r="BI4" t="inlineStr"/>
+      <c r="BI4" t="n">
+        <v>9655.354977614377</v>
+      </c>
       <c r="BJ4" t="n">
-        <v>779475.7222222239</v>
+        <v>36948.54658333352</v>
       </c>
       <c r="BK4" t="n">
-        <v>814396.6761727707</v>
+        <v>36948.76210888445</v>
       </c>
       <c r="BL4" t="inlineStr"/>
       <c r="BM4" t="inlineStr"/>
-      <c r="BN4" t="n">
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="n">
+        <v>42431.51706458534</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>4832.674288888869</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>4831.122320505192</v>
+      </c>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="n">
+        <v>4910.819665744362</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1034117.416666667</v>
+      </c>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="n">
+        <v>6729.649053701229</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>6748.365963661494</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>8273.496000000003</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>7830.369792000001</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>7975.376640000001</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>5401.454667627445</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>21124.62673888891</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>21126.32273752258</v>
+      </c>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="n">
+        <v>20860.37159182617</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>779475.7222222239</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>814396.6761727707</v>
+      </c>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="n">
+        <v>811002.4939600874</v>
+      </c>
+      <c r="CT4" t="n">
         <v>2.029833333333329</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="CU4" t="n">
         <v>2.038002585080058</v>
       </c>
-      <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="n">
+        <v>0.4114750983667386</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1231,137 +1635,215 @@
       <c r="D5" t="n">
         <v>62869.64284920001</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>58420.50065943553</v>
+      </c>
       <c r="F5" t="n">
+        <v>60604.25737132801</v>
+      </c>
+      <c r="G5" t="n">
+        <v>45170.21944853062</v>
+      </c>
+      <c r="H5" t="n">
         <v>18837.58122222219</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>18842.41296782196</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>19426.87931799945</v>
+      </c>
+      <c r="N5" t="n">
         <v>9096.326688888948</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>9093.593612493047</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>6843.433200000087</v>
-      </c>
-      <c r="O5" t="n">
-        <v>6834.085023437414</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>8626.851096852126</v>
+      </c>
+      <c r="T5" t="n">
+        <v>6843.433200000087</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6834.085023437414</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>5769.368699546731</v>
+      </c>
+      <c r="Z5" t="n">
         <v>19536.8927333334</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AA5" t="n">
         <v>19540.09828458193</v>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="n">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="n">
+        <v>21396.55463956298</v>
+      </c>
+      <c r="AF5" t="n">
         <v>2567.677244444436</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AG5" t="n">
         <v>2567.853033785321</v>
       </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="n">
+        <v>2357.305312350095</v>
+      </c>
+      <c r="AL5" t="n">
         <v>100614.5460222233</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AM5" t="n">
         <v>100646.4222088652</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AN5" t="n">
         <v>122514.1252236</v>
       </c>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="n">
+      <c r="AO5" t="n">
+        <v>113844.0781440922</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>118099.566661824</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>80060.77489095669</v>
+      </c>
+      <c r="AR5" t="n">
         <v>40132.22462222166</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AS5" t="n">
         <v>40132.14419836793</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="n">
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v>43763.88480727174</v>
+      </c>
+      <c r="AX5" t="n">
         <v>16666.54524444463</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AY5" t="n">
         <v>16667.065728746</v>
       </c>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="n">
-        <v>12504.16453333339</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>12504.65103822286</v>
-      </c>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="n">
-        <v>38768.93966666656</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>38774.04921766439</v>
-      </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="n">
-        <v>5046.83648888889</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>5045.500631021814</v>
-      </c>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="n">
-        <v>1035308.666666667</v>
-      </c>
-      <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="n">
-        <v>6681.842080444898</v>
-      </c>
+      <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="n">
-        <v>6701.528152933177</v>
+        <v>16267.66118094835</v>
       </c>
       <c r="BD5" t="n">
-        <v>9100.845600000002</v>
-      </c>
-      <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="n">
-        <v>22081.2152888889</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>22085.27531078522</v>
-      </c>
+        <v>12504.16453333339</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>12504.65103822286</v>
+      </c>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
+      <c r="BI5" t="n">
+        <v>10269.63338006063</v>
+      </c>
       <c r="BJ5" t="n">
-        <v>798234.5555555597</v>
+        <v>38768.93966666656</v>
       </c>
       <c r="BK5" t="n">
-        <v>839955.1975457226</v>
+        <v>38774.04921766439</v>
       </c>
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="n">
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="n">
+        <v>45533.511135981</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>5046.83648888889</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>5045.500631021814</v>
+      </c>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="n">
+        <v>5142.209145515955</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>1035308.666666667</v>
+      </c>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="n">
+        <v>6681.842080444898</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>6701.528152933177</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>9100.845600000002</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>8456.799375360002</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>8772.914304000002</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>5133.428665794577</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>22081.2152888889</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>22085.27531078522</v>
+      </c>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="n">
+        <v>21681.84328090124</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>798234.5555555597</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>839955.1975457226</v>
+      </c>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="n">
+        <v>835526.2666515046</v>
+      </c>
+      <c r="CT5" t="n">
         <v>1.839333333333343</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="CU5" t="n">
         <v>1.848293549469628</v>
       </c>
-      <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="n">
+        <v>0.01528776802419709</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1376,137 +1858,215 @@
       <c r="D6" t="n">
         <v>69156.60713412001</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>63094.14071219038</v>
+      </c>
       <c r="F6" t="n">
+        <v>66664.68310846083</v>
+      </c>
+      <c r="G6" t="n">
+        <v>45437.23177977177</v>
+      </c>
+      <c r="H6" t="n">
         <v>19641.52947222232</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>19646.47252048537</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>20359.01767126472</v>
+      </c>
+      <c r="N6" t="n">
         <v>9431.104288888979</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>9427.734604537824</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>7124.129183333367</v>
-      </c>
-      <c r="O6" t="n">
-        <v>7113.726989338642</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>8795.413716737283</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7124.129183333367</v>
+      </c>
+      <c r="U6" t="n">
+        <v>7113.726989338642</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>5530.952449926902</v>
+      </c>
+      <c r="Z6" t="n">
         <v>20205.17794999992</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AA6" t="n">
         <v>20208.54362072146</v>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="n">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="n">
+        <v>22403.80077301181</v>
+      </c>
+      <c r="AF6" t="n">
         <v>2640.060344444442</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AG6" t="n">
         <v>2640.1897217754</v>
       </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="n">
+        <v>2395.286757761096</v>
+      </c>
+      <c r="AL6" t="n">
         <v>105717.6094555557</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AM6" t="n">
         <v>105751.0330189717</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AN6" t="n">
         <v>134765.5377459601</v>
       </c>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="n">
+      <c r="AO6" t="n">
+        <v>122951.6043956196</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>129909.5233280064</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>80002.60002924842</v>
+      </c>
+      <c r="AR6" t="n">
         <v>42398.37183888815</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AS6" t="n">
         <v>42396.50817177792</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="n">
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="n">
+        <v>46534.70105611668</v>
+      </c>
+      <c r="AX6" t="n">
         <v>17468.90617777803</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AY6" t="n">
         <v>17468.85175048542</v>
       </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="n">
-        <v>13129.24493333348</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>13129.2958623879</v>
-      </c>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="n">
-        <v>40589.33275000006</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>40594.3492031963</v>
-      </c>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="n">
-        <v>5260.998688888911</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>5259.293208449591</v>
-      </c>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="n">
-        <v>1036499.916666667</v>
-      </c>
-      <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="n">
-        <v>6634.035107188553</v>
-      </c>
+      <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="n">
-        <v>6654.81831436532</v>
+        <v>16912.7026747778</v>
       </c>
       <c r="BD6" t="n">
-        <v>10010.93016</v>
-      </c>
-      <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="n">
-        <v>23037.80383888888</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>23041.60779504987</v>
-      </c>
+        <v>13129.24493333348</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>13129.2958623879</v>
+      </c>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr"/>
+      <c r="BI6" t="n">
+        <v>9735.71709709517</v>
+      </c>
       <c r="BJ6" t="n">
-        <v>816993.3888888881</v>
+        <v>40589.33275000006</v>
       </c>
       <c r="BK6" t="n">
-        <v>865443.8868930654</v>
+        <v>40594.3492031963</v>
       </c>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
-      <c r="BN6" t="n">
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="n">
+        <v>48631.36883770543</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>5260.998688888911</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>5259.293208449591</v>
+      </c>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="n">
+        <v>5373.597369750397</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1036499.916666667</v>
+      </c>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="n">
+        <v>6634.035107188553</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>6654.81831436532</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>10010.93016</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>9133.343325388803</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>9650.205734400004</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>4865.76994857386</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>23037.80383888888</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>23041.60779504987</v>
+      </c>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="n">
+        <v>22611.19212229684</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>816993.3888888881</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>865443.8868930654</v>
+      </c>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="n">
+        <v>859993.4170941353</v>
+      </c>
+      <c r="CT6" t="n">
         <v>1.648833333333357</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="CU6" t="n">
         <v>1.659102844557587</v>
       </c>
-      <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1521,137 +2081,215 @@
       <c r="D7" t="n">
         <v>76072.26784753203</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>68141.67196916562</v>
+      </c>
       <c r="F7" t="n">
+        <v>73331.1514193069</v>
+      </c>
+      <c r="G7" t="n">
+        <v>45639.93018321163</v>
+      </c>
+      <c r="H7" t="n">
         <v>20445.47772222222</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>20450.53207314877</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>21265.21537610106</v>
+      </c>
+      <c r="N7" t="n">
         <v>9765.881888889009</v>
       </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
         <v>9761.8755965826</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
-        <v>7404.825166666764</v>
-      </c>
-      <c r="O7" t="n">
-        <v>7393.368955239871</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>9109.058927211699</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7404.825166666764</v>
+      </c>
+      <c r="U7" t="n">
+        <v>7393.368955239871</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>5729.901446222807</v>
+      </c>
+      <c r="Z7" t="n">
         <v>20873.46316666668</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AA7" t="n">
         <v>20876.98895686099</v>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="n">
+        <v>23426.0703167848</v>
+      </c>
+      <c r="AF7" t="n">
         <v>2712.443444444449</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AG7" t="n">
         <v>2712.52640976548</v>
       </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="n">
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="n">
+        <v>2433.12612872314</v>
+      </c>
+      <c r="AL7" t="n">
         <v>110820.6728888899</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AM7" t="n">
         <v>110855.6438290782</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AN7" t="n">
         <v>148242.0915205561</v>
       </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="n">
+      <c r="AO7" t="n">
+        <v>132787.7327472692</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>142900.4756608071</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>79979.19544498589</v>
+      </c>
+      <c r="AR7" t="n">
         <v>44664.51905555557</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AS7" t="n">
         <v>44660.87214518791</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="n">
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="n">
+        <v>49335.74307700307</v>
+      </c>
+      <c r="AX7" t="n">
         <v>18271.2671111112</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AY7" t="n">
         <v>18270.63777222484</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="n">
-        <v>13754.32533333334</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>13753.94068655294</v>
-      </c>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="n">
-        <v>42409.72583333356</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>42414.64918872821</v>
-      </c>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="n">
-        <v>5475.160888888873</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>5473.08578587737</v>
-      </c>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="n">
-        <v>1037691.166666667</v>
-      </c>
-      <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="n">
-        <v>6586.228133932222</v>
-      </c>
+      <c r="BB7" t="inlineStr"/>
       <c r="BC7" t="n">
-        <v>6608.108475797465</v>
+        <v>17697.39073686567</v>
       </c>
       <c r="BD7" t="n">
-        <v>11012.02317600001</v>
-      </c>
-      <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="n">
-        <v>23994.39238888887</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>23997.94027931453</v>
-      </c>
+        <v>13754.32533333334</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>13753.94068655294</v>
+      </c>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
+      <c r="BI7" t="n">
+        <v>10199.78452333126</v>
+      </c>
       <c r="BJ7" t="n">
-        <v>835752.2222222239</v>
+        <v>42409.72583333356</v>
       </c>
       <c r="BK7" t="n">
-        <v>890932.576240408</v>
+        <v>42414.64918872821</v>
       </c>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="n">
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="n">
+        <v>51730.56985442725</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>5475.160888888873</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>5473.08578587737</v>
+      </c>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="n">
+        <v>5604.985499690462</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>1037691.166666667</v>
+      </c>
+      <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="n">
+        <v>6586.228133932222</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>6608.108475797465</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>11012.02317600001</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>9864.010791419907</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>10615.22630784</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>4598.273849669061</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>23994.39238888887</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>23997.94027931453</v>
+      </c>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr"/>
+      <c r="CM7" t="n">
+        <v>23472.3339632887</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>835752.2222222239</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>890932.576240408</v>
+      </c>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="n">
+        <v>884489.9578801616</v>
+      </c>
+      <c r="CT7" t="n">
         <v>1.458333333333314</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="CU7" t="n">
         <v>1.469912139645545</v>
       </c>
-      <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1664,7 +2302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ7"/>
+  <dimension ref="A1:CY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1695,325 +2333,495 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>GRDP theo giá so sánh (tỷ dồng) - 8% Growth</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GRDP theo giá so sánh (tỷ dồng) - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>GRDP theo giá so sánh (tỷ dồng) - ARIMA</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I - Linear Regression</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I - Prophet</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I - 10% Growth</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực I - 8% Growth</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực I - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I - ARIMA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II - Linear Regression</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II - Prophet</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II - 10% Growth</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực II - 8% Growth</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực II - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II - ARIMA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp - Linear Regression</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp - Prophet</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp - 10% Growth</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Trong đó: Công nghiệp - 8% Growth</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Trong đó: Công nghiệp - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp - ARIMA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III - Linear Regression</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III - Prophet</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III - 10% Growth</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực III - 8% Growth</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực III - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III - ARIMA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm - Linear Regression</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm - Prophet</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm - 10% Growth</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Thuế sản phẩm trừ trợ cấp sản phẩm - 8% Growth</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Thuế sản phẩm trừ trợ cấp sản phẩm - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm - ARIMA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>GRDP theo giá hiện hành - Linear Regression</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>GRDP theo giá hiện hành - Prophet</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>GRDP theo giá hiện hành - 10% Growth</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>GRDP theo giá hiện hành - 8% Growth</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>GRDP theo giá hiện hành - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>GRDP theo giá hiện hành - ARIMA</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I.1 - Prophet</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực I.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực I.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II.1 - Prophet</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực II.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực II.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp.1 - Prophet</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Trong đó: Công nghiệp.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Trong đó: Công nghiệp.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III.1 - Prophet</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực III.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực III.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - Prophet</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Dân số - Linear Regression</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Dân số - Prophet</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Dân số - 10% Growth</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Dân số - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Dân số - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Dân số - ARIMA</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Dân số - Prophet</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>Thu ngân sách - Linear Regression</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Thu ngân sách - Prophet</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>Thu ngân sách - 10% Growth</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>Thu ngân sách - 8% Growth</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>Thu ngân sách - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Thu ngân sách - ARIMA</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>Tổng đầu tư toàn xã hội - Linear Regression</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>Tổng đầu tư toàn xã hội - Prophet</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>Tổng đầu tư toàn xã hội - 10% Growth</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Tổng đầu tư toàn xã hội - 8% Growth</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Tổng đầu tư toàn xã hội - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>Tổng đầu tư toàn xã hội - ARIMA</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>Lao động có việc làm hàng năm - Linear Regression</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>Lao động có việc làm hàng năm - Prophet</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>Lao động có việc làm hàng năm - 10% Growth</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Lao động có việc làm hàng năm - 8% Growth</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>Lao động có việc làm hàng năm - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>Lao động có việc làm hàng năm - ARIMA</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ hộ nghèo của tỉnh - Linear Regression</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ hộ nghèo của tỉnh - Prophet</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ hộ nghèo của tỉnh - 10% Growth</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Tỷ lệ hộ nghèo của tỉnh - 8% Growth</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Tỷ lệ hộ nghèo của tỉnh - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ hộ nghèo của tỉnh - ARIMA</t>
         </is>
@@ -2032,137 +2840,215 @@
       <c r="D2" t="n">
         <v>42807.28889800001</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>42028.9745544</v>
+      </c>
       <c r="F2" t="n">
+        <v>42028.9745544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40652.72314957181</v>
+      </c>
+      <c r="H2" t="n">
         <v>13152.75506944448</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>13150.90719922729</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>12675.86066436414</v>
+      </c>
+      <c r="N2" t="n">
         <v>8762.882618888863</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>8762.936195924765</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>6914.260853611049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>6915.513846086089</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="n">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>9164.584528814463</v>
+      </c>
+      <c r="T2" t="n">
+        <v>6914.260853611049</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6915.513846086089</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>7498.984822762171</v>
+      </c>
+      <c r="Z2" t="n">
         <v>16521.93044166686</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AA2" t="n">
         <v>16807.93031023562</v>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="n">
+        <v>16867.39398446641</v>
+      </c>
+      <c r="AF2" t="n">
         <v>1490.017800555564</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AG2" t="n">
         <v>1489.775211969939</v>
       </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="n">
+        <v>1382.064862934719</v>
+      </c>
+      <c r="AL2" t="n">
         <v>76212.86593944393</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AM2" t="n">
         <v>79270.54682985204</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AN2" t="n">
         <v>81596.080797</v>
       </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
+      <c r="AO2" t="n">
+        <v>80112.5156916</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>80112.5156916</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>80168.97153370833</v>
+      </c>
+      <c r="AR2" t="n">
         <v>25758.9642599998</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AS2" t="n">
         <v>25890.17756769039</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="n">
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="n">
+        <v>25905.69185308161</v>
+      </c>
+      <c r="AX2" t="n">
         <v>15913.87805305561</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AY2" t="n">
         <v>15916.60803145307</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="n">
-        <v>12767.35056888871</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>12770.54482771168</v>
-      </c>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>31755.25913277734</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>33669.34002536436</v>
-      </c>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="n">
-        <v>2784.764493611117</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>2773.150608488128</v>
-      </c>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="n">
-        <v>1263533.388888888</v>
-      </c>
-      <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="n">
-        <v>6697.92505555565</v>
-      </c>
+      <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="n">
-        <v>6698.922646683185</v>
+        <v>16804.6660236406</v>
       </c>
       <c r="BD2" t="n">
-        <v>6786.89</v>
-      </c>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="n">
-        <v>22879.52777777752</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>22887.16578835913</v>
-      </c>
+        <v>12767.35056888871</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>12770.54482771168</v>
+      </c>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
+      <c r="BI2" t="n">
+        <v>13888.23252771831</v>
+      </c>
       <c r="BJ2" t="n">
-        <v>769743.8888888881</v>
+        <v>31755.25913277734</v>
       </c>
       <c r="BK2" t="n">
-        <v>769688.8729388184</v>
+        <v>33669.34002536436</v>
       </c>
       <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="n">
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="n">
+        <v>33574.4974874801</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>2784.764493611117</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>2773.150608488128</v>
+      </c>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="n">
+        <v>2758.570817091711</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1263533.388888888</v>
+      </c>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="n">
+        <v>6697.92505555565</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>6698.922646683185</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>6786.89</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>6663.492</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>6663.492</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>6589.634416023355</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>22879.52777777752</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>22887.16578835913</v>
+      </c>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="n">
+        <v>17186.26526659909</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>769743.8888888881</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>769688.8729388184</v>
+      </c>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="n">
+        <v>783241.5991530124</v>
+      </c>
+      <c r="CT2" t="n">
         <v>0.2816666666665242</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="CU2" t="n">
         <v>0.3295082427787833</v>
       </c>
-      <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="n">
+        <v>1.864191392755305</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2177,137 +3063,215 @@
       <c r="D3" t="n">
         <v>47088.01778780001</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>45391.292518752</v>
+      </c>
       <c r="F3" t="n">
+        <v>45391.292518752</v>
+      </c>
+      <c r="G3" t="n">
+        <v>42237.00447213553</v>
+      </c>
+      <c r="H3" t="n">
         <v>13412.14586844441</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>13409.51329473961</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>12602.31594923889</v>
+      </c>
+      <c r="N3" t="n">
         <v>9216.388570222189</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>9216.266447428134</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>7289.17721544439</v>
-      </c>
-      <c r="O3" t="n">
-        <v>7290.425140008676</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="n">
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>9742.583126313726</v>
+      </c>
+      <c r="T3" t="n">
+        <v>7289.17721544439</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7290.425140008676</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>8181.421689608283</v>
+      </c>
+      <c r="Z3" t="n">
         <v>17205.73929733364</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AA3" t="n">
         <v>17605.63882346847</v>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>17585.26639799931</v>
+      </c>
+      <c r="AF3" t="n">
         <v>1557.991810888896</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AG3" t="n">
         <v>1557.576331178792</v>
       </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="n">
+        <v>1398.296580806689</v>
+      </c>
+      <c r="AL3" t="n">
         <v>80392.9654124435</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AM3" t="n">
         <v>84811.27550064983</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AN3" t="n">
         <v>89755.68887670001</v>
       </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
+      <c r="AO3" t="n">
+        <v>86521.51694692801</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>86521.51694692801</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>86346.90265087316</v>
+      </c>
+      <c r="AR3" t="n">
         <v>26846.17088599969</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AS3" t="n">
         <v>27023.85436420155</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="n">
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="n">
+        <v>26666.79205855086</v>
+      </c>
+      <c r="AX3" t="n">
         <v>17019.62130588898</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AY3" t="n">
         <v>17022.85532559807</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="n">
-        <v>13681.53090488887</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>13684.68324829402</v>
-      </c>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="n">
-        <v>33572.19370777765</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>36317.29843575933</v>
-      </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="n">
-        <v>2954.97951277782</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>2939.359464796369</v>
-      </c>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="n">
-        <v>1260066.222222222</v>
-      </c>
-      <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="n">
-        <v>7084.048155555618</v>
-      </c>
+      <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="n">
-        <v>7084.791124485378</v>
+        <v>18263.06988732502</v>
       </c>
       <c r="BD3" t="n">
-        <v>7465.579000000001</v>
-      </c>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="n">
-        <v>23730.61111111101</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>23738.6392972381</v>
-      </c>
+        <v>13681.53090488887</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>13684.68324829402</v>
+      </c>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
+      <c r="BI3" t="n">
+        <v>15374.329582449</v>
+      </c>
       <c r="BJ3" t="n">
-        <v>765560.2888888866</v>
+        <v>33572.19370777765</v>
       </c>
       <c r="BK3" t="n">
-        <v>765492.6042725949</v>
+        <v>36317.29843575933</v>
       </c>
       <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="n">
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="n">
+        <v>35874.50953065081</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>2954.97951277782</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>2939.359464796369</v>
+      </c>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="n">
+        <v>2900.648527773045</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>1260066.222222222</v>
+      </c>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="n">
+        <v>7084.048155555618</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>7084.791124485378</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>7465.579000000001</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>7196.57136</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>7196.57136</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>7010.504997147633</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>23730.61111111101</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>23738.6392972381</v>
+      </c>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="n">
+        <v>15787.74134739219</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>765560.2888888866</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>765492.6042725949</v>
+      </c>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="n">
+        <v>788096.757156469</v>
+      </c>
+      <c r="CT3" t="n">
         <v>0</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="CU3" t="n">
         <v>0</v>
       </c>
-      <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="n">
+        <v>1.478639325899935</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2322,137 +3286,215 @@
       <c r="D4" t="n">
         <v>51796.81956658002</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>49022.59592025216</v>
+      </c>
       <c r="F4" t="n">
+        <v>49930.4217706272</v>
+      </c>
+      <c r="G4" t="n">
+        <v>43755.7174563394</v>
+      </c>
+      <c r="H4" t="n">
         <v>13671.53666744445</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>13668.11939025193</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>12560.54376516694</v>
+      </c>
+      <c r="N4" t="n">
         <v>9669.89452155563</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>9669.5966989315</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>7664.09357727773</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7665.336433931262</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>10335.99787421822</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7664.09357727773</v>
+      </c>
+      <c r="U4" t="n">
+        <v>7665.336433931262</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>8932.304329915582</v>
+      </c>
+      <c r="Z4" t="n">
         <v>17889.54815300019</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AA4" t="n">
         <v>18403.34733670133</v>
       </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="n">
+        <v>18299.90476174199</v>
+      </c>
+      <c r="AF4" t="n">
         <v>1625.965821222228</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AG4" t="n">
         <v>1625.377450387645</v>
       </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="n">
+        <v>1410.874199979271</v>
+      </c>
+      <c r="AL4" t="n">
         <v>84573.06488544308</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AM4" t="n">
         <v>90352.00417144762</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AN4" t="n">
         <v>98731.25776437002</v>
       </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
+      <c r="AO4" t="n">
+        <v>93443.23830268225</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>95173.66864162081</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>92466.43793484379</v>
+      </c>
+      <c r="AR4" t="n">
         <v>27933.37751200004</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AS4" t="n">
         <v>28157.53116071273</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="n">
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="n">
+        <v>27356.5275039704</v>
+      </c>
+      <c r="AX4" t="n">
         <v>18125.36455872236</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AY4" t="n">
         <v>18129.10261974308</v>
       </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="n">
-        <v>14595.71124088881</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>14598.82166887635</v>
-      </c>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="n">
-        <v>35389.1282827775</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>38965.25684615429</v>
-      </c>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="n">
-        <v>3125.194531944464</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>3105.56832110461</v>
-      </c>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="n">
-        <v>1256599.055555555</v>
-      </c>
-      <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="n">
-        <v>7470.171255555586</v>
-      </c>
+      <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="n">
-        <v>7470.65960228757</v>
+        <v>19774.94057844626</v>
       </c>
       <c r="BD4" t="n">
-        <v>8212.136900000001</v>
-      </c>
-      <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="n">
-        <v>24581.69444444426</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>24590.11280611708</v>
-      </c>
+        <v>14595.71124088881</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>14598.82166887635</v>
+      </c>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="inlineStr"/>
-      <c r="BI4" t="inlineStr"/>
+      <c r="BI4" t="n">
+        <v>16978.02717361027</v>
+      </c>
       <c r="BJ4" t="n">
-        <v>761376.6888888869</v>
+        <v>35389.1282827775</v>
       </c>
       <c r="BK4" t="n">
-        <v>761296.3356063715</v>
+        <v>38965.25684615429</v>
       </c>
       <c r="BL4" t="inlineStr"/>
       <c r="BM4" t="inlineStr"/>
-      <c r="BN4" t="n">
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="n">
+        <v>38102.09354469588</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>3125.194531944464</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>3105.56832110461</v>
+      </c>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="n">
+        <v>3037.952858425937</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1256599.055555555</v>
+      </c>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="n">
+        <v>7470.171255555586</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>7470.65960228757</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>8212.136900000001</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>7772.2970688</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>7916.228496000001</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>7431.367442473937</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>24581.69444444426</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>24590.11280611708</v>
+      </c>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="n">
+        <v>14368.82198499336</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>761376.6888888869</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>761296.3356063715</v>
+      </c>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="n">
+        <v>792392.1280170013</v>
+      </c>
+      <c r="CT4" t="n">
         <v>0</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="CU4" t="n">
         <v>0</v>
       </c>
-      <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="n">
+        <v>1.093075928794716</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2467,137 +3509,215 @@
       <c r="D5" t="n">
         <v>56976.50152323802</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>52944.40359387235</v>
+      </c>
       <c r="F5" t="n">
+        <v>54923.46394768993</v>
+      </c>
+      <c r="G5" t="n">
+        <v>45246.28038696976</v>
+      </c>
+      <c r="H5" t="n">
         <v>13930.9274664445</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>13927.43399561496</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>12536.81785421373</v>
+      </c>
+      <c r="N5" t="n">
         <v>10123.40047288896</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>10124.16895112392</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>8039.009939111071</v>
-      </c>
-      <c r="O5" t="n">
-        <v>8041.274882083774</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>10945.23994600543</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8039.009939111071</v>
+      </c>
+      <c r="U5" t="n">
+        <v>8041.274882083774</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>9758.497589550834</v>
+      </c>
+      <c r="Z5" t="n">
         <v>18573.35700866696</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AA5" t="n">
         <v>19203.24135271016</v>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="n">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="n">
+        <v>19014.14174802953</v>
+      </c>
+      <c r="AF5" t="n">
         <v>1693.939831555559</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AG5" t="n">
         <v>1693.364326087481</v>
       </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="n">
+        <v>1420.62033438712</v>
+      </c>
+      <c r="AL5" t="n">
         <v>88753.16435844265</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AM5" t="n">
         <v>95907.91292079558</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AN5" t="n">
         <v>108604.383540807</v>
       </c>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="n">
+      <c r="AO5" t="n">
+        <v>100918.6973668968</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>104691.0355057829</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>98604.18797726699</v>
+      </c>
+      <c r="AR5" t="n">
         <v>29020.58413799992</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AS5" t="n">
         <v>29294.31392104995</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="n">
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v>27981.5897247522</v>
+      </c>
+      <c r="AX5" t="n">
         <v>19231.10781155573</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AY5" t="n">
         <v>19238.3807283926</v>
       </c>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="n">
-        <v>15509.89157688874</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>15515.46457828221</v>
-      </c>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="n">
-        <v>37206.06285777735</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41620.46993712569</v>
-      </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="n">
-        <v>3295.409551111108</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>3272.232544142463</v>
-      </c>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="n">
-        <v>1253131.888888888</v>
-      </c>
-      <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="n">
-        <v>7856.294355555554</v>
-      </c>
+      <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="n">
-        <v>7857.585254001548</v>
+        <v>21342.23825475442</v>
       </c>
       <c r="BD5" t="n">
-        <v>9033.350590000002</v>
-      </c>
-      <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="n">
-        <v>25432.77777777752</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>25443.91911912997</v>
-      </c>
+        <v>15509.89157688874</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>15515.46457828221</v>
+      </c>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
+      <c r="BI5" t="n">
+        <v>18708.63148085219</v>
+      </c>
       <c r="BJ5" t="n">
-        <v>757193.0888888873</v>
+        <v>37206.06285777735</v>
       </c>
       <c r="BK5" t="n">
-        <v>757088.5703136653</v>
+        <v>41620.46993712569</v>
       </c>
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="n">
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="n">
+        <v>40299.08346541709</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>3295.409551111108</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>3272.232544142463</v>
+      </c>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="n">
+        <v>3170.644180137357</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>1253131.888888888</v>
+      </c>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="n">
+        <v>7856.294355555554</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>7857.585254001548</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>9033.350590000002</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>8394.080834304001</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>8707.851345600002</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>7852.229946058684</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>25432.77777777752</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>25443.91911912997</v>
+      </c>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="n">
+        <v>12953.8563426202</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>757193.0888888873</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>757088.5703136653</v>
+      </c>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="n">
+        <v>796949.603620656</v>
+      </c>
+      <c r="CT5" t="n">
         <v>0</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="CU5" t="n">
         <v>0</v>
       </c>
-      <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="n">
+        <v>0.7075130320963227</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2612,137 +3732,215 @@
       <c r="D6" t="n">
         <v>62674.15167556182</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>57179.95588138214</v>
+      </c>
       <c r="F6" t="n">
+        <v>60415.81034245894</v>
+      </c>
+      <c r="G6" t="n">
+        <v>46724.75782731605</v>
+      </c>
+      <c r="H6" t="n">
         <v>14190.31826544442</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>14186.04009112728</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>12523.34192847353</v>
+      </c>
+      <c r="N6" t="n">
         <v>10576.90642422228</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>10577.49920262729</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>8413.926300944411</v>
-      </c>
-      <c r="O6" t="n">
-        <v>8416.18617600636</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>11570.7314818095</v>
+      </c>
+      <c r="T6" t="n">
+        <v>8413.926300944411</v>
+      </c>
+      <c r="U6" t="n">
+        <v>8416.18617600636</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>10667.55483182158</v>
+      </c>
+      <c r="Z6" t="n">
         <v>19257.16586433351</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AA6" t="n">
         <v>20000.94986594302</v>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="n">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="n">
+        <v>19728.32891941873</v>
+      </c>
+      <c r="AF6" t="n">
         <v>1761.913841888891</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AG6" t="n">
         <v>1761.165445296334</v>
       </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="n">
+        <v>1428.172410387554</v>
+      </c>
+      <c r="AL6" t="n">
         <v>92933.26383144408</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AM6" t="n">
         <v>101448.6415915934</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AN6" t="n">
         <v>119464.8218948877</v>
       </c>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="n">
+      <c r="AO6" t="n">
+        <v>108992.1931562486</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>115160.1390563612</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>104736.2564940172</v>
+      </c>
+      <c r="AR6" t="n">
         <v>30107.7907639998</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AS6" t="n">
         <v>30427.99071756112</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="n">
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="n">
+        <v>28548.04282273823</v>
+      </c>
+      <c r="AX6" t="n">
         <v>20336.85106438911</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AY6" t="n">
         <v>20344.6280225376</v>
       </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="n">
-        <v>16424.07191288867</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>16429.60299886454</v>
-      </c>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="n">
-        <v>39022.99743277766</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>44268.42834752065</v>
-      </c>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="n">
-        <v>3465.624570277811</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>3438.441400450704</v>
-      </c>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="n">
-        <v>1249664.722222222</v>
-      </c>
-      <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="n">
-        <v>8242.417455555638</v>
-      </c>
+      <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="n">
-        <v>8243.45373180374</v>
+        <v>22966.99493572374</v>
       </c>
       <c r="BD6" t="n">
-        <v>9936.685649000003</v>
-      </c>
-      <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="n">
-        <v>26283.86111111101</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>26295.39262800894</v>
-      </c>
+        <v>16424.07191288867</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>16429.60299886454</v>
+      </c>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr"/>
+      <c r="BI6" t="n">
+        <v>20576.18511736764</v>
+      </c>
       <c r="BJ6" t="n">
-        <v>753009.4888888877</v>
+        <v>39022.99743277766</v>
       </c>
       <c r="BK6" t="n">
-        <v>752892.3016474418</v>
+        <v>44268.42834752065</v>
       </c>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
-      <c r="BN6" t="n">
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="n">
+        <v>42483.15023252488</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>3465.624570277811</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>3438.441400450704</v>
+      </c>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="n">
+        <v>3298.8774760123</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1249664.722222222</v>
+      </c>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="n">
+        <v>8242.417455555638</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>8243.45373180374</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>9936.685649000003</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>9065.607301048323</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>9578.636480160003</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>8273.092449226257</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>26283.86111111101</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>26295.39262800894</v>
+      </c>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="n">
+        <v>11538.12425933696</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>753009.4888888877</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>752892.3016474418</v>
+      </c>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="n">
+        <v>801384.3559763125</v>
+      </c>
+      <c r="CT6" t="n">
         <v>0</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="CU6" t="n">
         <v>0</v>
       </c>
-      <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="n">
+        <v>0.3219501132971813</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2757,137 +3955,215 @@
       <c r="D7" t="n">
         <v>68941.56684311801</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>61754.35235189271</v>
+      </c>
       <c r="F7" t="n">
+        <v>66457.39137670482</v>
+      </c>
+      <c r="G7" t="n">
+        <v>48198.04667805538</v>
+      </c>
+      <c r="H7" t="n">
         <v>14449.70906444447</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>14444.6461866396</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>12515.68782512156</v>
+      </c>
+      <c r="N7" t="n">
         <v>11030.41237555561</v>
       </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
         <v>11030.82945413065</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
-        <v>8788.842662777752</v>
-      </c>
-      <c r="O7" t="n">
-        <v>8791.097469928947</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>12212.9058809196</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8788.842662777752</v>
+      </c>
+      <c r="U7" t="n">
+        <v>8791.097469928947</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>11667.78699310756</v>
+      </c>
+      <c r="Z7" t="n">
         <v>19940.97472000029</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AA7" t="n">
         <v>20798.65837917588</v>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="n">
+        <v>20442.50990828807</v>
+      </c>
+      <c r="AF7" t="n">
         <v>1829.887852222222</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AG7" t="n">
         <v>1828.966564505187</v>
       </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="n">
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="n">
+        <v>1434.024356351935</v>
+      </c>
+      <c r="AL7" t="n">
         <v>97113.36330444366</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AM7" t="n">
         <v>106989.3702623912</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AN7" t="n">
         <v>131411.3040843765</v>
       </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="n">
+      <c r="AO7" t="n">
+        <v>117711.5686087485</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>126676.1529619973</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>110870.0971854607</v>
+      </c>
+      <c r="AR7" t="n">
         <v>31194.99738999968</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AS7" t="n">
         <v>31561.66751407229</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="n">
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="n">
+        <v>29061.38229767345</v>
+      </c>
+      <c r="AX7" t="n">
         <v>21442.59431722248</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AY7" t="n">
         <v>21450.87531668261</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="n">
-        <v>17338.25224888884</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>17343.74141944688</v>
-      </c>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="n">
-        <v>40839.9320077775</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>46916.38675791561</v>
-      </c>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="n">
-        <v>3635.839589444455</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>3604.650256758946</v>
-      </c>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="n">
-        <v>1246197.555555555</v>
-      </c>
-      <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="n">
-        <v>8628.540555555606</v>
-      </c>
+      <c r="BB7" t="inlineStr"/>
       <c r="BC7" t="n">
-        <v>8629.322209605933</v>
+        <v>24651.31713708928</v>
       </c>
       <c r="BD7" t="n">
-        <v>10930.3542139</v>
-      </c>
-      <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="n">
-        <v>27134.94444444426</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>27146.86613688792</v>
-      </c>
+        <v>17338.25224888884</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>17343.74141944688</v>
+      </c>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
+      <c r="BI7" t="n">
+        <v>22591.52540669151</v>
+      </c>
       <c r="BJ7" t="n">
-        <v>748825.8888888881</v>
+        <v>40839.9320077775</v>
       </c>
       <c r="BK7" t="n">
-        <v>748696.0329812184</v>
+        <v>46916.38675791561</v>
       </c>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="n">
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="n">
+        <v>44661.75817143507</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>3635.839589444455</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>3604.650256758946</v>
+      </c>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="n">
+        <v>3422.80252219364</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>1246197.555555555</v>
+      </c>
+      <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="n">
+        <v>8628.540555555606</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>8629.322209605933</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>10930.3542139</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>9790.855885132189</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>10536.500128176</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>8693.954952396816</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>27134.94444444426</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>27146.86613688792</v>
+      </c>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr"/>
+      <c r="CM7" t="n">
+        <v>10122.54075300526</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>748825.8888888881</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>748696.0329812184</v>
+      </c>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="n">
+        <v>805876.5700757736</v>
+      </c>
+      <c r="CT7" t="n">
         <v>0</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="CU7" t="n">
         <v>0</v>
       </c>
-      <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2900,7 +4176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ7"/>
+  <dimension ref="A1:CY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2931,325 +4207,495 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>GRDP theo giá so sánh (tỷ dồng) - 8% Growth</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GRDP theo giá so sánh (tỷ dồng) - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>GRDP theo giá so sánh (tỷ dồng) - ARIMA</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I - Linear Regression</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I - Prophet</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I - 10% Growth</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực I - 8% Growth</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực I - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I - ARIMA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II - Linear Regression</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II - Prophet</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II - 10% Growth</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực II - 8% Growth</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực II - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II - ARIMA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp - Linear Regression</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp - Prophet</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp - 10% Growth</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Trong đó: Công nghiệp - 8% Growth</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Trong đó: Công nghiệp - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp - ARIMA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III - Linear Regression</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III - Prophet</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III - 10% Growth</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực III - 8% Growth</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực III - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III - ARIMA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm - Linear Regression</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm - Prophet</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm - 10% Growth</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Thuế sản phẩm trừ trợ cấp sản phẩm - 8% Growth</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Thuế sản phẩm trừ trợ cấp sản phẩm - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm - ARIMA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>GRDP theo giá hiện hành - Linear Regression</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>GRDP theo giá hiện hành - Prophet</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>GRDP theo giá hiện hành - 10% Growth</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>GRDP theo giá hiện hành - 8% Growth</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>GRDP theo giá hiện hành - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>GRDP theo giá hiện hành - ARIMA</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I.1 - Prophet</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực I.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực I.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II.1 - Prophet</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực II.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực II.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp.1 - Prophet</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Trong đó: Công nghiệp.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Trong đó: Công nghiệp.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III.1 - Prophet</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực III.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực III.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - Prophet</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Dân số - Linear Regression</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Dân số - Prophet</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Dân số - 10% Growth</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Dân số - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Dân số - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Dân số - ARIMA</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Dân số - Prophet</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>Thu ngân sách - Linear Regression</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Thu ngân sách - Prophet</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>Thu ngân sách - 10% Growth</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>Thu ngân sách - 8% Growth</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>Thu ngân sách - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Thu ngân sách - ARIMA</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>Tổng đầu tư toàn xã hội - Linear Regression</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>Tổng đầu tư toàn xã hội - Prophet</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>Tổng đầu tư toàn xã hội - 10% Growth</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Tổng đầu tư toàn xã hội - 8% Growth</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Tổng đầu tư toàn xã hội - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>Tổng đầu tư toàn xã hội - ARIMA</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>Lao động có việc làm hàng năm - Linear Regression</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>Lao động có việc làm hàng năm - Prophet</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>Lao động có việc làm hàng năm - 10% Growth</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Lao động có việc làm hàng năm - 8% Growth</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>Lao động có việc làm hàng năm - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>Lao động có việc làm hàng năm - ARIMA</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ hộ nghèo của tỉnh - Linear Regression</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ hộ nghèo của tỉnh - Prophet</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ hộ nghèo của tỉnh - 10% Growth</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Tỷ lệ hộ nghèo của tỉnh - 8% Growth</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Tỷ lệ hộ nghèo của tỉnh - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ hộ nghèo của tỉnh - ARIMA</t>
         </is>
@@ -3268,137 +4714,215 @@
       <c r="D2" t="n">
         <v>51820.931129</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>50878.7323812</v>
+      </c>
       <c r="F2" t="n">
+        <v>50878.7323812</v>
+      </c>
+      <c r="G2" t="n">
+        <v>52147.04369544127</v>
+      </c>
+      <c r="H2" t="n">
         <v>13831.14802973915</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>13832.39040100954</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>13752.78562195082</v>
+      </c>
+      <c r="N2" t="n">
         <v>16795.40778651088</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>16795.21661633106</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>14372.91146825813</v>
-      </c>
-      <c r="O2" t="n">
-        <v>14370.35759666793</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="n">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>20114.28193237822</v>
+      </c>
+      <c r="T2" t="n">
+        <v>14372.91146825813</v>
+      </c>
+      <c r="U2" t="n">
+        <v>14370.35759666793</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>17579.07182479848</v>
+      </c>
+      <c r="Z2" t="n">
         <v>14688.93428833084</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AA2" t="n">
         <v>14691.27675821101</v>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="n">
+        <v>15300.64578363506</v>
+      </c>
+      <c r="AF2" t="n">
         <v>2523.160446399168</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AG2" t="n">
         <v>2523.279400884761</v>
       </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="n">
+        <v>2434.588711575644</v>
+      </c>
+      <c r="AL2" t="n">
         <v>96096.52500467934</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AM2" t="n">
         <v>96096.07514914477</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AN2" t="n">
         <v>106285.179011</v>
       </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
+      <c r="AO2" t="n">
+        <v>104352.7212108</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>104352.7212108</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>110309.5413781002</v>
+      </c>
+      <c r="AR2" t="n">
         <v>26560.18591806618</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AS2" t="n">
         <v>27459.67069876146</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="n">
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="n">
+        <v>28178.10361765081</v>
+      </c>
+      <c r="AX2" t="n">
         <v>36186.56967665814</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AY2" t="n">
         <v>36186.14024149676</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="n">
-        <v>32086.40440294985</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>32068.34395998009</v>
-      </c>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>28285.56505961996</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>28286.66853600599</v>
-      </c>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="n">
-        <v>5064.204350338085</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>5064.20571372521</v>
-      </c>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="n">
-        <v>1024842.055555556</v>
-      </c>
-      <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="n">
-        <v>21134.03487505764</v>
-      </c>
+      <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="n">
-        <v>21134.43960347453</v>
+        <v>45819.38099845964</v>
       </c>
       <c r="BD2" t="n">
-        <v>21895.7618</v>
-      </c>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="n">
-        <v>31125.8419166666</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>31125.64973033495</v>
-      </c>
+        <v>32086.40440294985</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>32068.34395998009</v>
+      </c>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
+      <c r="BI2" t="n">
+        <v>41535.90599621891</v>
+      </c>
       <c r="BJ2" t="n">
-        <v>513640.1753187105</v>
+        <v>28285.56505961996</v>
       </c>
       <c r="BK2" t="n">
-        <v>528005.1937877403</v>
+        <v>28286.66853600599</v>
       </c>
       <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="n">
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="n">
+        <v>30567.60376943631</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>5064.204350338085</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>5064.20571372521</v>
+      </c>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="n">
+        <v>5140.949843318739</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1024842.055555556</v>
+      </c>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="n">
+        <v>21134.03487505764</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>21134.43960347453</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>21895.7618</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>21497.65704</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>21497.65704</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>20206.62862374827</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>31125.8419166666</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>31125.64973033495</v>
+      </c>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="n">
+        <v>31421.65682000389</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>513640.1753187105</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>528005.1937877403</v>
+      </c>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="n">
+        <v>535704.4426079062</v>
+      </c>
+      <c r="CT2" t="n">
         <v>0</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="CU2" t="n">
         <v>0</v>
       </c>
-      <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="n">
+        <v>0.8051400169242511</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3413,137 +4937,215 @@
       <c r="D3" t="n">
         <v>57003.02424190001</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>54949.030971696</v>
+      </c>
       <c r="F3" t="n">
+        <v>54949.030971696</v>
+      </c>
+      <c r="G3" t="n">
+        <v>56820.76035869184</v>
+      </c>
+      <c r="H3" t="n">
         <v>14205.55454224593</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>14206.70586298863</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>13871.66225925537</v>
+      </c>
+      <c r="N3" t="n">
         <v>17738.67547524022</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>17737.79875863988</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>15196.28249750799</v>
-      </c>
-      <c r="O3" t="n">
-        <v>15192.36671915022</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="n">
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>23472.36480236156</v>
+      </c>
+      <c r="T3" t="n">
+        <v>15196.28249750799</v>
+      </c>
+      <c r="U3" t="n">
+        <v>15192.36671915022</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>20662.19546168899</v>
+      </c>
+      <c r="Z3" t="n">
         <v>15397.76976132393</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AA3" t="n">
         <v>15401.04002236641</v>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>16118.11846457465</v>
+      </c>
+      <c r="AF3" t="n">
         <v>2571.161070960399</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AG3" t="n">
         <v>2571.271230581481</v>
       </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="n">
+        <v>2412.823570355132</v>
+      </c>
+      <c r="AL3" t="n">
         <v>102381.1092231367</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AM3" t="n">
         <v>102377.7267377368</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AN3" t="n">
         <v>116913.6969121</v>
       </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
+      <c r="AO3" t="n">
+        <v>112700.938907664</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>112700.938907664</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>123858.5818242116</v>
+      </c>
+      <c r="AR3" t="n">
         <v>27821.61425428092</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AS3" t="n">
         <v>29079.71660106666</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="n">
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="n">
+        <v>29800.29672885036</v>
+      </c>
+      <c r="AX3" t="n">
         <v>39168.96892540529</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AY3" t="n">
         <v>39166.30903225739</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="n">
-        <v>34797.78036276251</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>34774.51201302225</v>
-      </c>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="n">
-        <v>30090.11539544072</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>30090.66059060101</v>
-      </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="n">
-        <v>5300.41064801201</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>5300.194556066967</v>
-      </c>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="n">
-        <v>1027024.755555555</v>
-      </c>
-      <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="n">
-        <v>22186.84466350079</v>
-      </c>
+      <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="n">
-        <v>22186.60401839996</v>
+        <v>54361.91920339136</v>
       </c>
       <c r="BD3" t="n">
-        <v>24085.33798</v>
-      </c>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="n">
-        <v>32010.15696666669</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>32009.52678445769</v>
-      </c>
+        <v>34797.78036276251</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>34774.51201302225</v>
+      </c>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
+      <c r="BI3" t="n">
+        <v>49636.1274776979</v>
+      </c>
       <c r="BJ3" t="n">
-        <v>506081.1419853754</v>
+        <v>30090.11539544072</v>
       </c>
       <c r="BK3" t="n">
-        <v>526194.6762422451</v>
+        <v>30090.66059060101</v>
       </c>
       <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="n">
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="n">
+        <v>33051.08330292634</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>5300.41064801201</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>5300.194556066967</v>
+      </c>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="n">
+        <v>5381.592057460993</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>1027024.755555555</v>
+      </c>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="n">
+        <v>22186.84466350079</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>22186.60401839996</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>24085.33798</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>23217.4696032</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>23217.4696032</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>20437.63563203828</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>32010.15696666669</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>32009.52678445769</v>
+      </c>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="n">
+        <v>25944.42055036916</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>506081.1419853754</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>526194.6762422451</v>
+      </c>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="n">
+        <v>537202.1115364243</v>
+      </c>
+      <c r="CT3" t="n">
         <v>0</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="CU3" t="n">
         <v>0</v>
       </c>
-      <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="n">
+        <v>0.7916137419094359</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3558,137 +5160,215 @@
       <c r="D4" t="n">
         <v>62703.32666609002</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>59344.95344943168</v>
+      </c>
       <c r="F4" t="n">
+        <v>60443.93406886561</v>
+      </c>
+      <c r="G4" t="n">
+        <v>61673.58496050118</v>
+      </c>
+      <c r="H4" t="n">
         <v>14579.96105475281</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>14581.02132496773</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>13940.24073977619</v>
+      </c>
+      <c r="N4" t="n">
         <v>18681.94316396932</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>18680.38090094868</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>16019.65352675761</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16014.37584163249</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>26840.8089902246</v>
+      </c>
+      <c r="T4" t="n">
+        <v>16019.65352675761</v>
+      </c>
+      <c r="U4" t="n">
+        <v>16014.37584163249</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>23749.89508533779</v>
+      </c>
+      <c r="Z4" t="n">
         <v>16106.60523431678</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AA4" t="n">
         <v>16110.80328652181</v>
       </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="n">
+        <v>16934.9656687656</v>
+      </c>
+      <c r="AF4" t="n">
         <v>2619.16169552163</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AG4" t="n">
         <v>2619.263060278202</v>
       </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="n">
+        <v>2402.347305195979</v>
+      </c>
+      <c r="AL4" t="n">
         <v>108665.693441594</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AM4" t="n">
         <v>108659.3783263289</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AN4" t="n">
         <v>128605.06660331</v>
       </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
+      <c r="AO4" t="n">
+        <v>121717.0140202771</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>123971.0327984304</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>137427.3271745615</v>
+      </c>
+      <c r="AR4" t="n">
         <v>29083.04259049613</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AS4" t="n">
         <v>30699.76250337186</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="n">
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="n">
+        <v>31388.43358302917</v>
+      </c>
+      <c r="AX4" t="n">
         <v>42151.36817415245</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AY4" t="n">
         <v>42146.47782301802</v>
       </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="n">
-        <v>37509.15632257611</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>37480.6800660644</v>
-      </c>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="n">
-        <v>31894.66573126148</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>31894.65264519602</v>
-      </c>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="n">
-        <v>5536.616945685877</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>5536.183398408727</v>
-      </c>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="n">
-        <v>1029207.455555555</v>
-      </c>
-      <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="n">
-        <v>23239.65445194347</v>
-      </c>
+      <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="n">
-        <v>23238.76843332539</v>
+        <v>62904.79978134215</v>
       </c>
       <c r="BD4" t="n">
-        <v>26493.87177800001</v>
-      </c>
-      <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="n">
-        <v>32894.47201666655</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>32893.40383858042</v>
-      </c>
+        <v>37509.15632257611</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>37480.6800660644</v>
+      </c>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="inlineStr"/>
-      <c r="BI4" t="inlineStr"/>
+      <c r="BI4" t="n">
+        <v>57757.13541202816</v>
+      </c>
       <c r="BJ4" t="n">
-        <v>498522.1086520422</v>
+        <v>31894.66573126148</v>
       </c>
       <c r="BK4" t="n">
-        <v>524384.1586967499</v>
+        <v>31894.65264519602</v>
       </c>
       <c r="BL4" t="inlineStr"/>
       <c r="BM4" t="inlineStr"/>
-      <c r="BN4" t="n">
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="n">
+        <v>35519.52447798304</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>5536.616945685877</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>5536.183398408727</v>
+      </c>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="n">
+        <v>5620.962988700569</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1029207.455555555</v>
+      </c>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="n">
+        <v>23239.65445194347</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>23238.76843332539</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>26493.87177800001</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>25074.867171456</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>25539.21656352</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>20614.6956786165</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>32894.47201666655</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>32893.40383858042</v>
+      </c>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="n">
+        <v>31186.44992642278</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>498522.1086520422</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>524384.1586967499</v>
+      </c>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="n">
+        <v>538354.1676331557</v>
+      </c>
+      <c r="CT4" t="n">
         <v>0</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="CU4" t="n">
         <v>0</v>
       </c>
-      <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="n">
+        <v>0.7841743630101061</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3703,137 +5383,215 @@
       <c r="D5" t="n">
         <v>68973.65933269901</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>64092.54972538623</v>
+      </c>
       <c r="F5" t="n">
+        <v>66488.32747575217</v>
+      </c>
+      <c r="G5" t="n">
+        <v>66438.13061891141</v>
+      </c>
+      <c r="H5" t="n">
         <v>14954.3675672597</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>14956.36230876046</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>13979.80282781285</v>
+      </c>
+      <c r="N5" t="n">
         <v>19625.21085269842</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>19625.54546008573</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>16843.02455600724</v>
-      </c>
-      <c r="O5" t="n">
-        <v>16838.6370439024</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>30207.92738809816</v>
+      </c>
+      <c r="T5" t="n">
+        <v>16843.02455600724</v>
+      </c>
+      <c r="U5" t="n">
+        <v>16838.6370439024</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>26837.12593521075</v>
+      </c>
+      <c r="Z5" t="n">
         <v>16815.44070730987</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AA5" t="n">
         <v>16822.5111075653</v>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="n">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="n">
+        <v>17751.74597824974</v>
+      </c>
+      <c r="AF5" t="n">
         <v>2667.162320082862</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AG5" t="n">
         <v>2667.386374439845</v>
       </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="n">
+        <v>2397.30474054763</v>
+      </c>
+      <c r="AL5" t="n">
         <v>114950.2776600495</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AM5" t="n">
         <v>114958.2399192733</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AN5" t="n">
         <v>141465.573263641</v>
       </c>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="n">
+      <c r="AO5" t="n">
+        <v>131454.3751418993</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>136368.1360782735</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>150993.2509229235</v>
+      </c>
+      <c r="AR5" t="n">
         <v>30344.47092671087</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AS5" t="n">
         <v>32324.24688760118</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="n">
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v>32969.65036211873</v>
+      </c>
+      <c r="AX5" t="n">
         <v>45133.7674228996</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AY5" t="n">
         <v>45134.81145978073</v>
       </c>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="n">
-        <v>40220.53228238877</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>40194.26227815599</v>
-      </c>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="n">
-        <v>33699.21606708178</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>33703.58714377623</v>
-      </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="n">
-        <v>5772.823243359802</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>5772.818785524025</v>
-      </c>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="n">
-        <v>1031390.155555555</v>
-      </c>
-      <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="n">
-        <v>24292.46424038662</v>
-      </c>
+      <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="n">
-        <v>24293.81549048349</v>
+        <v>71447.68578945109</v>
       </c>
       <c r="BD5" t="n">
-        <v>29143.25895580001</v>
-      </c>
-      <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="n">
-        <v>33778.78706666664</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>33779.70247367336</v>
-      </c>
+        <v>40220.53228238877</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>40194.26227815599</v>
+      </c>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
+      <c r="BI5" t="n">
+        <v>65881.13513256673</v>
+      </c>
       <c r="BJ5" t="n">
-        <v>490963.075318709</v>
+        <v>33699.21606708178</v>
       </c>
       <c r="BK5" t="n">
-        <v>522568.6808292122</v>
+        <v>33703.58714377623</v>
       </c>
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="n">
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="n">
+        <v>37982.0203141635</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>5772.823243359802</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>5772.818785524025</v>
+      </c>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="n">
+        <v>5860.176089006728</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>1031390.155555555</v>
+      </c>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="n">
+        <v>24292.46424038662</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>24293.81549048349</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>29143.25895580001</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>27080.85654517249</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>28093.13821987201</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>20750.40697294623</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>33778.78706666664</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>33779.70247367336</v>
+      </c>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="n">
+        <v>26169.52704293328</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>490963.075318709</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>522568.6808292122</v>
+      </c>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="n">
+        <v>539656.8090374995</v>
+      </c>
+      <c r="CT5" t="n">
         <v>0</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="CU5" t="n">
         <v>0</v>
       </c>
-      <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="n">
+        <v>0.7800827444124379</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3848,137 +5606,215 @@
       <c r="D6" t="n">
         <v>75871.02526596893</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>69219.95370341714</v>
+      </c>
       <c r="F6" t="n">
+        <v>73137.1602233274</v>
+      </c>
+      <c r="G6" t="n">
+        <v>71246.18731268038</v>
+      </c>
+      <c r="H6" t="n">
         <v>15328.77407976659</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>15330.67777073956</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>14002.62571332933</v>
+      </c>
+      <c r="N6" t="n">
         <v>20568.47854142776</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>20568.12760239454</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>17666.39558525686</v>
-      </c>
-      <c r="O6" t="n">
-        <v>17660.64616638467</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>33575.21542839719</v>
+      </c>
+      <c r="T6" t="n">
+        <v>17666.39558525686</v>
+      </c>
+      <c r="U6" t="n">
+        <v>17660.64616638467</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>29924.4048072622</v>
+      </c>
+      <c r="Z6" t="n">
         <v>17524.27618030296</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AA6" t="n">
         <v>17532.2743717207</v>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="n">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="n">
+        <v>18568.51913334835</v>
+      </c>
+      <c r="AF6" t="n">
         <v>2715.162944644093</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AG6" t="n">
         <v>2715.378204136566</v>
       </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="n">
+        <v>2394.877591382685</v>
+      </c>
+      <c r="AL6" t="n">
         <v>121234.8618785068</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AM6" t="n">
         <v>121239.8915078653</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AN6" t="n">
         <v>155612.1305900052</v>
       </c>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="n">
+      <c r="AO6" t="n">
+        <v>141970.7251532513</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>150004.9496861009</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>164559.5787046003</v>
+      </c>
+      <c r="AR6" t="n">
         <v>31605.89926292561</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AS6" t="n">
         <v>33944.29278990638</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="n">
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="n">
+        <v>34549.4610137172</v>
+      </c>
+      <c r="AX6" t="n">
         <v>48116.16667164769</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AY6" t="n">
         <v>48114.98025054135</v>
       </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="n">
-        <v>42931.90824220143</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>42900.43033119814</v>
-      </c>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="n">
-        <v>35503.76640290255</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>35507.57919837124</v>
-      </c>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="n">
-        <v>6009.029541033669</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6008.807627865783</v>
-      </c>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="n">
-        <v>1033572.855555555</v>
-      </c>
-      <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="n">
-        <v>25345.27402882976</v>
-      </c>
+      <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="n">
-        <v>25345.97990540892</v>
+        <v>79990.57188368427</v>
       </c>
       <c r="BD6" t="n">
-        <v>32057.58485138001</v>
-      </c>
-      <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="n">
-        <v>34663.1021166665</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>34663.57952779609</v>
-      </c>
+        <v>42931.90824220143</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>42900.43033119814</v>
+      </c>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr"/>
+      <c r="BI6" t="n">
+        <v>74005.56545974995</v>
+      </c>
       <c r="BJ6" t="n">
-        <v>483404.0419853758</v>
+        <v>35503.76640290255</v>
       </c>
       <c r="BK6" t="n">
-        <v>520758.1632837171</v>
+        <v>35507.57919837124</v>
       </c>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
-      <c r="BN6" t="n">
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="n">
+        <v>40442.16569071701</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>6009.029541033669</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>6008.807627865783</v>
+      </c>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="n">
+        <v>6099.369594458359</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1033572.855555555</v>
+      </c>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="n">
+        <v>25345.27402882976</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>25345.97990540892</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>32057.58485138001</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>29247.32506878629</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>30902.45204185921</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>20854.42567035755</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>34663.1021166665</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>34663.57952779609</v>
+      </c>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="n">
+        <v>30971.01009716008</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>483404.0419853758</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>520758.1632837171</v>
+      </c>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="n">
+        <v>540893.8396404403</v>
+      </c>
+      <c r="CT6" t="n">
         <v>0</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="CU6" t="n">
         <v>0</v>
       </c>
-      <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="n">
+        <v>0.7778323760718372</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3993,137 +5829,215 @@
       <c r="D7" t="n">
         <v>83458.12779256582</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>74757.5499996905</v>
+      </c>
       <c r="F7" t="n">
+        <v>80450.87624566014</v>
+      </c>
+      <c r="G7" t="n">
+        <v>76032.79823325484</v>
+      </c>
+      <c r="H7" t="n">
         <v>15703.18059227336</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>15704.99323271865</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>14015.79195730551</v>
+      </c>
+      <c r="N7" t="n">
         <v>21511.74623015686</v>
       </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
         <v>21510.70974470334</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
-        <v>18489.76661450649</v>
-      </c>
-      <c r="O7" t="n">
-        <v>18482.65528886696</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>36942.48176197589</v>
+      </c>
+      <c r="T7" t="n">
+        <v>18489.76661450649</v>
+      </c>
+      <c r="U7" t="n">
+        <v>18482.65528886696</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>33011.67875981998</v>
+      </c>
+      <c r="Z7" t="n">
         <v>18233.11165329604</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AA7" t="n">
         <v>18242.0376358761</v>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="n">
+        <v>19385.29152328578</v>
+      </c>
+      <c r="AF7" t="n">
         <v>2763.163569205324</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AG7" t="n">
         <v>2763.370033833286</v>
       </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="n">
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="n">
+        <v>2393.709326128848</v>
+      </c>
+      <c r="AL7" t="n">
         <v>127519.4460969642</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AM7" t="n">
         <v>127521.5430964574</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AN7" t="n">
         <v>171173.3436490057</v>
       </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="n">
+      <c r="AO7" t="n">
+        <v>153328.3831655114</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>165005.4446547109</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>178125.8486315832</v>
+      </c>
+      <c r="AR7" t="n">
         <v>32867.32759914082</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AS7" t="n">
         <v>35564.33869221158</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="n">
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="n">
+        <v>36128.98594666438</v>
+      </c>
+      <c r="AX7" t="n">
         <v>51098.56592039485</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AY7" t="n">
         <v>51095.14904130199</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="n">
-        <v>45643.2842020141</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>45606.59838424029</v>
-      </c>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="n">
-        <v>37308.31673872285</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>37311.57125296626</v>
-      </c>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="n">
-        <v>6245.235838707595</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6244.796470207542</v>
-      </c>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="n">
-        <v>1035755.555555556</v>
-      </c>
-      <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="n">
-        <v>26398.08381727291</v>
-      </c>
+      <c r="BB7" t="inlineStr"/>
       <c r="BC7" t="n">
-        <v>26398.14432033435</v>
+        <v>88533.45797928341</v>
       </c>
       <c r="BD7" t="n">
-        <v>35263.34333651802</v>
-      </c>
-      <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="n">
-        <v>35547.41716666659</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>35547.45658191883</v>
-      </c>
+        <v>45643.2842020141</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>45606.59838424029</v>
+      </c>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
+      <c r="BI7" t="n">
+        <v>82130.05776398283</v>
+      </c>
       <c r="BJ7" t="n">
-        <v>475845.0086520426</v>
+        <v>37308.31673872285</v>
       </c>
       <c r="BK7" t="n">
-        <v>518947.6457382219</v>
+        <v>37311.57125296626</v>
       </c>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="n">
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="n">
+        <v>42901.38182495601</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>6245.235838707595</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>6244.796470207542</v>
+      </c>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="n">
+        <v>6338.560667190904</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>1035755.555555556</v>
+      </c>
+      <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="n">
+        <v>26398.08381727291</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>26398.14432033435</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>35263.34333651802</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>31587.11107428919</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>33992.69724604514</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>20934.15292861254</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>35547.41716666659</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>35547.45658191883</v>
+      </c>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr"/>
+      <c r="CM7" t="n">
+        <v>26375.71532077479</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>475845.0086520426</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>518947.6457382219</v>
+      </c>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="n">
+        <v>542159.4572106558</v>
+      </c>
+      <c r="CT7" t="n">
         <v>0</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="CU7" t="n">
         <v>0</v>
       </c>
-      <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="n">
+        <v>0.7765946855228539</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4136,7 +6050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ7"/>
+  <dimension ref="A1:CY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4167,325 +6081,495 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>GRDP theo giá so sánh (tỷ dồng) - 8% Growth</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GRDP theo giá so sánh (tỷ dồng) - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>GRDP theo giá so sánh (tỷ dồng) - ARIMA</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I - Linear Regression</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I - Prophet</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I - 10% Growth</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực I - 8% Growth</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực I - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I - ARIMA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II - Linear Regression</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II - Prophet</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II - 10% Growth</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực II - 8% Growth</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực II - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II - ARIMA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp - Linear Regression</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp - Prophet</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp - 10% Growth</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Trong đó: Công nghiệp - 8% Growth</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Trong đó: Công nghiệp - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp - ARIMA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III - Linear Regression</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III - Prophet</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III - 10% Growth</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực III - 8% Growth</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực III - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III - ARIMA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm - Linear Regression</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm - Prophet</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm - 10% Growth</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Thuế sản phẩm trừ trợ cấp sản phẩm - 8% Growth</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Thuế sản phẩm trừ trợ cấp sản phẩm - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm - ARIMA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>GRDP theo giá hiện hành - Linear Regression</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>GRDP theo giá hiện hành - Prophet</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>GRDP theo giá hiện hành - 10% Growth</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>GRDP theo giá hiện hành - 8% Growth</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>GRDP theo giá hiện hành - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>GRDP theo giá hiện hành - ARIMA</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I.1 - Prophet</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực I.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực I.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Khu vực I.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II.1 - Prophet</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực II.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực II.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Khu vực II.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp.1 - Prophet</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Trong đó: Công nghiệp.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Trong đó: Công nghiệp.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Trong đó: Công nghiệp.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III.1 - Prophet</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực III.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Khu vực III.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Khu vực III.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - Linear Regression</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - Prophet</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - 10% Growth</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Thuế sản phẩm trừ trợ cấp sản phẩm.1 - ARIMA</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Dân số - Linear Regression</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Dân số - Prophet</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Dân số - 10% Growth</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Dân số - 8% Growth</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Dân số - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Dân số - ARIMA</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Dân số - Prophet</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>Thu ngân sách - Linear Regression</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Thu ngân sách - Prophet</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>Thu ngân sách - 10% Growth</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>Thu ngân sách - 8% Growth</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>Thu ngân sách - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Thu ngân sách - ARIMA</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>Tổng đầu tư toàn xã hội - Linear Regression</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>Tổng đầu tư toàn xã hội - Prophet</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>Tổng đầu tư toàn xã hội - 10% Growth</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Tổng đầu tư toàn xã hội - 8% Growth</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Tổng đầu tư toàn xã hội - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>Tổng đầu tư toàn xã hội - ARIMA</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>Lao động có việc làm hàng năm - Linear Regression</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>Lao động có việc làm hàng năm - Prophet</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>Lao động có việc làm hàng năm - 10% Growth</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Lao động có việc làm hàng năm - 8% Growth</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>Lao động có việc làm hàng năm - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>Lao động có việc làm hàng năm - ARIMA</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ hộ nghèo của tỉnh - Linear Regression</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ hộ nghèo của tỉnh - Prophet</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ hộ nghèo của tỉnh - 10% Growth</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Tỷ lệ hộ nghèo của tỉnh - 8% Growth</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Tỷ lệ hộ nghèo của tỉnh - Mixed Growth</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>Tỷ lệ hộ nghèo của tỉnh - ARIMA</t>
         </is>
@@ -4504,137 +6588,215 @@
       <c r="D2" t="n">
         <v>141863.113227</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>139283.7838956</v>
+      </c>
       <c r="F2" t="n">
+        <v>139283.7838956</v>
+      </c>
+      <c r="G2" t="n">
+        <v>136108.3631977069</v>
+      </c>
+      <c r="H2" t="n">
         <v>43409.63957140595</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>43611.62046914884</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>42883.28528080587</v>
+      </c>
+      <c r="N2" t="n">
         <v>33650.28429428861</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>33662.04569568308</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>27288.51757186977</v>
-      </c>
-      <c r="O2" t="n">
-        <v>27316.60387051285</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="n">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>37010.37442016706</v>
+      </c>
+      <c r="T2" t="n">
+        <v>27288.51757186977</v>
+      </c>
+      <c r="U2" t="n">
+        <v>27316.60387051285</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>31104.91554818396</v>
+      </c>
+      <c r="Z2" t="n">
         <v>48742.90181333059</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AA2" t="n">
         <v>50342.04317385397</v>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="n">
+        <v>50822.38037639497</v>
+      </c>
+      <c r="AF2" t="n">
         <v>6363.706191399135</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AG2" t="n">
         <v>6363.540246437755</v>
       </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="n">
+        <v>5865.19795737296</v>
+      </c>
+      <c r="AL2" t="n">
         <v>257614.7466663495</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AM2" t="n">
         <v>272524.3577328731</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AN2" t="n">
         <v>279927.935408</v>
       </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
+      <c r="AO2" t="n">
+        <v>274838.3365824</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>274838.3365824</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>278611.7311346539</v>
+      </c>
+      <c r="AR2" t="n">
         <v>85652.93315028772</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AS2" t="n">
         <v>90092.58578698436</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="n">
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="n">
+        <v>88807.15886672003</v>
+      </c>
+      <c r="AX2" t="n">
         <v>66359.91017415747</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AY2" t="n">
         <v>66347.03760099267</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="n">
-        <v>55482.67830517329</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>55487.31780889471</v>
-      </c>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>93348.5846090652</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>93366.65105077144</v>
-      </c>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="n">
-        <v>12253.31873283791</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>12252.48886716135</v>
-      </c>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="n">
-        <v>3320110.361111111</v>
-      </c>
-      <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="n">
-        <v>34657.22293082718</v>
-      </c>
+      <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="n">
-        <v>34657.33250708674</v>
+        <v>75527.07254713452</v>
       </c>
       <c r="BD2" t="n">
-        <v>35520.2518</v>
-      </c>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="n">
-        <v>73216.81933333352</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>73133.85465877158</v>
-      </c>
+        <v>55482.67830517329</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>55487.31780889471</v>
+      </c>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
+      <c r="BI2" t="n">
+        <v>66405.99375002131</v>
+      </c>
       <c r="BJ2" t="n">
-        <v>2025342.119763155</v>
+        <v>93348.5846090652</v>
       </c>
       <c r="BK2" t="n">
-        <v>2080562.051050584</v>
+        <v>93366.65105077144</v>
       </c>
       <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="n">
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="n">
+        <v>100936.4008033482</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>12253.31873283791</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>12252.48886716135</v>
+      </c>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="n">
+        <v>12380.12551501078</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>3320110.361111111</v>
+      </c>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="n">
+        <v>34657.22293082718</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>34657.33250708674</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>35520.2518</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>34874.42904</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>34874.42904</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>30764.1378991253</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>73216.81933333352</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>73133.85465877158</v>
+      </c>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="n">
+        <v>59719.31810253798</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>2025342.119763155</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>2080562.051050584</v>
+      </c>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="n">
+        <v>2081631.177968697</v>
+      </c>
+      <c r="CT2" t="n">
         <v>0.4597222222218988</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="CU2" t="n">
         <v>0.4673421851384483</v>
       </c>
-      <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="n">
+        <v>4.350129082190629</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -4649,137 +6811,215 @@
       <c r="D3" t="n">
         <v>156049.4245497</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>150426.486607248</v>
+      </c>
       <c r="F3" t="n">
+        <v>150426.486607248</v>
+      </c>
+      <c r="G3" t="n">
+        <v>143919.8203896607</v>
+      </c>
+      <c r="H3" t="n">
         <v>44847.38513291301</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>45120.83640726298</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>43623.66825063936</v>
+      </c>
+      <c r="N3" t="n">
         <v>35381.83553435141</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>35395.17463671079</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>28767.50094628613</v>
-      </c>
-      <c r="O3" t="n">
-        <v>28799.16628331333</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="n">
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>41026.10877415004</v>
+      </c>
+      <c r="T3" t="n">
+        <v>28767.50094628613</v>
+      </c>
+      <c r="U3" t="n">
+        <v>28799.16628331333</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>34934.92419880575</v>
+      </c>
+      <c r="Z3" t="n">
         <v>50803.83135865722</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AA3" t="n">
         <v>53040.41981407205</v>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>53741.76082055532</v>
+      </c>
+      <c r="AF3" t="n">
         <v>6552.063926293747</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AG3" t="n">
         <v>6551.653472915071</v>
       </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="n">
+        <v>5876.612007411129</v>
+      </c>
+      <c r="AL3" t="n">
         <v>273182.4937911406</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AM3" t="n">
         <v>294032.1372654325</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AN3" t="n">
         <v>307920.7289488001</v>
       </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
+      <c r="AO3" t="n">
+        <v>296825.4035089921</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>296825.4035089921</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>304129.3567804567</v>
+      </c>
+      <c r="AR3" t="n">
         <v>90267.71532917023</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AS3" t="n">
         <v>96400.43713890997</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="n">
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="n">
+        <v>96390.71045342383</v>
+      </c>
+      <c r="AX3" t="n">
         <v>71250.41360907257</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AY3" t="n">
         <v>71230.76084304175</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="n">
-        <v>59733.31500098482</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>59735.47244527823</v>
-      </c>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="n">
-        <v>98790.46260321885</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>98813.34820692021</v>
-      </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="n">
-        <v>12873.9022496785</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>12872.24682842161</v>
-      </c>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="n">
-        <v>3320017.144444444</v>
-      </c>
-      <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="n">
-        <v>36048.34884601412</v>
-      </c>
+      <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="n">
-        <v>36047.54381946487</v>
+        <v>85143.83336923335</v>
       </c>
       <c r="BD3" t="n">
-        <v>39072.27698</v>
-      </c>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="n">
-        <v>75908.80626666639</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>75811.07212728844</v>
-      </c>
+        <v>59733.31500098482</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>59735.47244527823</v>
+      </c>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
+      <c r="BI3" t="n">
+        <v>76470.94829812839</v>
+      </c>
       <c r="BJ3" t="n">
-        <v>2032358.319763154</v>
+        <v>98790.46260321885</v>
       </c>
       <c r="BK3" t="n">
-        <v>2110124.979612127</v>
+        <v>98813.34820692021</v>
       </c>
       <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="n">
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="n">
+        <v>109559.3659925183</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>12873.9022496785</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>12872.24682842161</v>
+      </c>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="n">
+        <v>13012.16136119215</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>3320017.144444444</v>
+      </c>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="n">
+        <v>36048.34884601412</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>36047.54381946487</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>39072.27698</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>37664.3833632</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>37664.3833632</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>29019.89759601705</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>75908.80626666639</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>75811.07212728844</v>
+      </c>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="n">
+        <v>59736.61216667121</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>2032358.319763154</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>2110124.979612127</v>
+      </c>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="n">
+        <v>2113528.789184491</v>
+      </c>
+      <c r="CT3" t="n">
         <v>0</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="CU3" t="n">
         <v>0</v>
       </c>
-      <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="n">
+        <v>4.29079806576893</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -4794,137 +7034,215 @@
       <c r="D4" t="n">
         <v>171654.36700467</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>162460.6055358278</v>
+      </c>
       <c r="F4" t="n">
+        <v>165469.1352679728</v>
+      </c>
+      <c r="G4" t="n">
+        <v>151441.8566697734</v>
+      </c>
+      <c r="H4" t="n">
         <v>46285.13069441961</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>46630.05234537713</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>44216.16743900267</v>
+      </c>
+      <c r="N4" t="n">
         <v>37113.38677441375</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>37128.3035777385</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>30246.4843207025</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30281.7286961138</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>45041.45595961234</v>
+      </c>
+      <c r="T4" t="n">
+        <v>30246.4843207025</v>
+      </c>
+      <c r="U4" t="n">
+        <v>30281.7286961138</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>38760.44928354789</v>
+      </c>
+      <c r="Z4" t="n">
         <v>52864.76090398338</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AA4" t="n">
         <v>55738.79645429013</v>
       </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="n">
+        <v>56622.19596719958</v>
+      </c>
+      <c r="AF4" t="n">
         <v>6740.421661188302</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AG4" t="n">
         <v>6739.766699392386</v>
       </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="n">
+        <v>5882.847141896907</v>
+      </c>
+      <c r="AL4" t="n">
         <v>288750.240915928</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AM4" t="n">
         <v>315539.916797992</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AN4" t="n">
         <v>338712.8018436801</v>
       </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
+      <c r="AO4" t="n">
+        <v>320571.4357897114</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>326507.9438598913</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>329064.6507207461</v>
+      </c>
+      <c r="AR4" t="n">
         <v>94882.49750805087</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AS4" t="n">
         <v>102708.2884908355</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="n">
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="n">
+        <v>100922.9948064191</v>
+      </c>
+      <c r="AX4" t="n">
         <v>76140.9170439858</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AY4" t="n">
         <v>76114.48408509079</v>
       </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="n">
-        <v>63983.95169679821</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>63983.62708166176</v>
-      </c>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="n">
-        <v>104232.3405973725</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>104260.045363069</v>
-      </c>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="n">
-        <v>13494.48576651909</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>13492.00478968187</v>
-      </c>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="n">
-        <v>3319923.927777778</v>
-      </c>
-      <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="n">
-        <v>37439.4747612006</v>
-      </c>
+      <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="n">
-        <v>37437.75513184299</v>
+        <v>94641.84909337841</v>
       </c>
       <c r="BD4" t="n">
-        <v>42979.50467800001</v>
-      </c>
-      <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="n">
-        <v>78600.79319999926</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>78488.28959580528</v>
-      </c>
+        <v>63983.95169679821</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>63983.62708166176</v>
+      </c>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="inlineStr"/>
-      <c r="BI4" t="inlineStr"/>
+      <c r="BI4" t="n">
+        <v>86357.0100407756</v>
+      </c>
       <c r="BJ4" t="n">
-        <v>2039374.519763155</v>
+        <v>104232.3405973725</v>
       </c>
       <c r="BK4" t="n">
-        <v>2139687.908173671</v>
+        <v>104260.045363069</v>
       </c>
       <c r="BL4" t="inlineStr"/>
       <c r="BM4" t="inlineStr"/>
-      <c r="BN4" t="n">
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="n">
+        <v>118176.3942353076</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>13494.48576651909</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>13492.00478968187</v>
+      </c>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="n">
+        <v>13636.17884887176</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>3319923.927777778</v>
+      </c>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="n">
+        <v>37439.4747612006</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>37437.75513184299</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>42979.50467800001</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>40677.534032256</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>41430.82169952001</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>29309.57436942051</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>78600.79319999926</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>78488.28959580528</v>
+      </c>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="n">
+        <v>59745.9448069669</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>2039374.519763155</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>2139687.908173671</v>
+      </c>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="n">
+        <v>2143911.103480253</v>
+      </c>
+      <c r="CT4" t="n">
         <v>0</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="CU4" t="n">
         <v>0</v>
       </c>
-      <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="n">
+        <v>4.281769001663787</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4939,137 +7257,215 @@
       <c r="D5" t="n">
         <v>188819.803705137</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>175457.4539786941</v>
+      </c>
       <c r="F5" t="n">
+        <v>182016.0487947701</v>
+      </c>
+      <c r="G5" t="n">
+        <v>159088.9965905182</v>
+      </c>
+      <c r="H5" t="n">
         <v>47722.87625592668</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>48143.40312167789</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>44690.32108990328</v>
+      </c>
+      <c r="N5" t="n">
         <v>38844.93801447656</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>38866.18081723479</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>31725.46769511839</v>
-      </c>
-      <c r="O5" t="n">
-        <v>31768.35292374387</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>49056.81872263164</v>
+      </c>
+      <c r="T5" t="n">
+        <v>31725.46769511839</v>
+      </c>
+      <c r="U5" t="n">
+        <v>31768.35292374387</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>42585.43726067497</v>
+      </c>
+      <c r="Z5" t="n">
         <v>54925.69044930954</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AA5" t="n">
         <v>58444.56590722114</v>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="n">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="n">
+        <v>59517.05088732218</v>
+      </c>
+      <c r="AF5" t="n">
         <v>6928.779396082857</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AG5" t="n">
         <v>6928.395304572379</v>
       </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="n">
+        <v>5886.253198636252</v>
+      </c>
+      <c r="AL5" t="n">
         <v>304317.9880407192</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AM5" t="n">
         <v>337106.6217539283</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AN5" t="n">
         <v>372584.0820280481</v>
       </c>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="n">
+      <c r="AO5" t="n">
+        <v>346217.1506528883</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>359158.7382458805</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>354244.6419169529</v>
+      </c>
+      <c r="AR5" t="n">
         <v>99497.27968693338</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AS5" t="n">
         <v>109033.421627287</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="n">
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v>108634.3551901294</v>
+      </c>
+      <c r="AX5" t="n">
         <v>81031.42047890089</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AY5" t="n">
         <v>81011.5873908167</v>
       </c>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="n">
-        <v>68234.58839261159</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>68243.42049787099</v>
-      </c>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="n">
-        <v>109674.2185915262</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>109721.6649771798</v>
-      </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="n">
-        <v>14115.06928335968</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>14113.46071795929</v>
-      </c>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="n">
-        <v>3319830.711111111</v>
-      </c>
-      <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="n">
-        <v>38830.60067638755</v>
-      </c>
+      <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="n">
-        <v>38831.77524233722</v>
+        <v>104180.4492189565</v>
       </c>
       <c r="BD5" t="n">
-        <v>47277.45514580001</v>
-      </c>
-      <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="n">
-        <v>81292.78013333306</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>81172.84190670162</v>
-      </c>
+        <v>68234.58839261159</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>68243.42049787099</v>
+      </c>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
+      <c r="BI5" t="n">
+        <v>96379.45370669689</v>
+      </c>
       <c r="BJ5" t="n">
-        <v>2046390.719763154</v>
+        <v>109674.2185915262</v>
       </c>
       <c r="BK5" t="n">
-        <v>2169331.831060041</v>
+        <v>109721.6649771798</v>
       </c>
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="n">
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="n">
+        <v>126794.266879576</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>14115.06928335968</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>14113.46071795929</v>
+      </c>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="n">
+        <v>14258.26419564642</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>3319830.711111111</v>
+      </c>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="n">
+        <v>38830.60067638755</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>38831.77524233722</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>47277.45514580001</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>43931.73675483649</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>45573.90386947201</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>29261.46595631945</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>81292.78013333306</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>81172.84190670162</v>
+      </c>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="n">
+        <v>59750.98111157511</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>2046390.719763154</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>2169331.831060041</v>
+      </c>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="n">
+        <v>2175179.462114001</v>
+      </c>
+      <c r="CT5" t="n">
         <v>0</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="CU5" t="n">
         <v>0</v>
       </c>
-      <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="n">
+        <v>4.280394948031613</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -5084,137 +7480,215 @@
       <c r="D6" t="n">
         <v>207701.7840756508</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>189494.0502969896</v>
+      </c>
       <c r="F6" t="n">
+        <v>200217.6536742472</v>
+      </c>
+      <c r="G6" t="n">
+        <v>166682.0598351865</v>
+      </c>
+      <c r="H6" t="n">
         <v>49160.62181743328</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>49652.61905979204</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>45069.76749097501</v>
+      </c>
+      <c r="N6" t="n">
         <v>40576.4892545389</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>40599.30975826251</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>33204.45106953476</v>
-      </c>
-      <c r="O6" t="n">
-        <v>33250.91533654434</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>53072.18085889471</v>
+      </c>
+      <c r="T6" t="n">
+        <v>33204.45106953476</v>
+      </c>
+      <c r="U6" t="n">
+        <v>33250.91533654434</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>46410.3608951342</v>
+      </c>
+      <c r="Z6" t="n">
         <v>56986.61999463616</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AA6" t="n">
         <v>61142.94254743923</v>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="n">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="n">
+        <v>62406.56678372618</v>
+      </c>
+      <c r="AF6" t="n">
         <v>7117.137130977411</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AG6" t="n">
         <v>7116.508531049694</v>
       </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="n">
+        <v>5888.113819692318</v>
+      </c>
+      <c r="AL6" t="n">
         <v>319885.7351655103</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AM6" t="n">
         <v>358614.4012864878</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AN6" t="n">
         <v>409842.4902308529</v>
       </c>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="n">
+      <c r="AO6" t="n">
+        <v>373914.5227051195</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>395074.6120704685</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>379321.8107071553</v>
+      </c>
+      <c r="AR6" t="n">
         <v>104112.061865814</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AS6" t="n">
         <v>115341.2729792126</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="n">
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="n">
+        <v>113033.4772036911</v>
+      </c>
+      <c r="AX6" t="n">
         <v>85921.92391381413</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AY6" t="n">
         <v>85895.31063286574</v>
       </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="n">
-        <v>72485.22508842312</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>72491.57513425451</v>
-      </c>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="n">
-        <v>115116.0965856798</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>115168.3621333286</v>
-      </c>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="n">
-        <v>14735.65280020027</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>14733.21867921956</v>
-      </c>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="n">
-        <v>3319737.494444444</v>
-      </c>
-      <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="n">
-        <v>40221.72659157403</v>
-      </c>
+      <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="n">
-        <v>40221.98655471535</v>
+        <v>113705.1785097122</v>
       </c>
       <c r="BD6" t="n">
-        <v>52005.20066038002</v>
-      </c>
-      <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="n">
-        <v>83984.76706666686</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>83850.05937521848</v>
-      </c>
+        <v>72485.22508842312</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>72491.57513425451</v>
+      </c>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr"/>
+      <c r="BI6" t="n">
+        <v>106297.9243316224</v>
+      </c>
       <c r="BJ6" t="n">
-        <v>2053406.919763153</v>
+        <v>115116.0965856798</v>
       </c>
       <c r="BK6" t="n">
-        <v>2198894.759621584</v>
+        <v>115168.3621333286</v>
       </c>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
-      <c r="BN6" t="n">
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="n">
+        <v>135412.0194261019</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>14735.65280020027</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>14733.21867921956</v>
+      </c>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="n">
+        <v>14879.88396477502</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>3319737.494444444</v>
+      </c>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="n">
+        <v>40221.72659157403</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>40221.98655471535</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>52005.20066038002</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>47446.27569522341</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>50131.29425641922</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>29269.45561798238</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>83984.76706666686</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>83850.05937521848</v>
+      </c>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="n">
+        <v>59753.69892382363</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>2053406.919763153</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>2198894.759621584</v>
+      </c>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="n">
+        <v>2205929.72125286</v>
+      </c>
+      <c r="CT6" t="n">
         <v>0</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="CU6" t="n">
         <v>0</v>
       </c>
-      <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="n">
+        <v>4.280185842928128</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -5229,137 +7703,215 @@
       <c r="D7" t="n">
         <v>228471.9624832158</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>204653.5743207488</v>
+      </c>
       <c r="F7" t="n">
+        <v>220239.4190416718</v>
+      </c>
+      <c r="G7" t="n">
+        <v>174298.4979942913</v>
+      </c>
+      <c r="H7" t="n">
         <v>50598.36737894034</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>51161.83499790619</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>45373.42342827046</v>
+      </c>
+      <c r="N7" t="n">
         <v>42308.04049460124</v>
       </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
         <v>42332.43869929021</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
-        <v>34683.43444395112</v>
-      </c>
-      <c r="O7" t="n">
-        <v>34733.47774934482</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>57087.54302037504</v>
+      </c>
+      <c r="T7" t="n">
+        <v>34683.43444395112</v>
+      </c>
+      <c r="U7" t="n">
+        <v>34733.47774934482</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>50235.27682168019</v>
+      </c>
+      <c r="Z7" t="n">
         <v>59047.54953996232</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AA7" t="n">
         <v>63841.31918765732</v>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="n">
+        <v>65298.05949164602</v>
+      </c>
+      <c r="AF7" t="n">
         <v>7305.494865871966</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AG7" t="n">
         <v>7304.621757527009</v>
       </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="n">
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="n">
+        <v>5889.130218119945</v>
+      </c>
+      <c r="AL7" t="n">
         <v>335453.4822903015</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AM7" t="n">
         <v>380122.1808190472</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AN7" t="n">
         <v>450826.7392539383</v>
       </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="n">
+      <c r="AO7" t="n">
+        <v>403827.684521529</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>434582.0732775154</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>404442.1857324946</v>
+      </c>
+      <c r="AR7" t="n">
         <v>108726.8440446965</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AS7" t="n">
         <v>121649.1243311382</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="n">
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="n">
+        <v>120883.5777137366</v>
+      </c>
+      <c r="AX7" t="n">
         <v>90812.42734872922</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AY7" t="n">
         <v>90779.03387491481</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="n">
-        <v>76735.86178423651</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>76739.72977063803</v>
-      </c>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="n">
-        <v>120557.9745798334</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>120615.0592894774</v>
-      </c>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="n">
-        <v>15356.23631704086</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>15352.97664047982</v>
-      </c>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="n">
-        <v>3319644.277777778</v>
-      </c>
-      <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="n">
-        <v>41612.85250676097</v>
-      </c>
+      <c r="BB7" t="inlineStr"/>
       <c r="BC7" t="n">
-        <v>41612.19786709346</v>
+        <v>123234.6485395666</v>
       </c>
       <c r="BD7" t="n">
-        <v>57205.72072641803</v>
-      </c>
-      <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="n">
-        <v>86676.75399999972</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>86527.27684373532</v>
-      </c>
+        <v>76735.86178423651</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>76739.72977063803</v>
+      </c>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
+      <c r="BI7" t="n">
+        <v>116295.6605439101</v>
+      </c>
       <c r="BJ7" t="n">
-        <v>2060423.119763155</v>
+        <v>120557.9745798334</v>
       </c>
       <c r="BK7" t="n">
-        <v>2228457.688183127</v>
+        <v>120615.0592894774</v>
       </c>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="n">
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="n">
+        <v>144029.7890539192</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>15356.23631704086</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>15352.97664047982</v>
+      </c>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="n">
+        <v>15501.39154615169</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>3319644.277777778</v>
+      </c>
+      <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="n">
+        <v>41612.85250676097</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>41612.19786709346</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>57205.72072641803</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>51241.97775084129</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>55144.42368206114</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>29268.12872546248</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>86676.75399999972</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>86527.27684373532</v>
+      </c>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr"/>
+      <c r="CM7" t="n">
+        <v>59755.16557526607</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>2060423.119763155</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>2228457.688183127</v>
+      </c>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="n">
+        <v>2236982.930340266</v>
+      </c>
+      <c r="CT7" t="n">
         <v>0</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="CU7" t="n">
         <v>0</v>
       </c>
-      <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="n">
+        <v>4.28015402106668</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/forecast_results.xlsx
+++ b/forecast_results.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vĩnh Long" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bến Tre" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trà Vinh" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sát nhập 3 tỉnh" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sáp nhập 3 tỉnh" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
